--- a/Supplement/Data/Metadata.xlsx
+++ b/Supplement/Data/Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\authoff\Documents\AWI\RProjects\SOT22\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\authoff\Documents\AWI\RProjects\TopTrons\Supplement\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DE53BD-3BA2-4972-9F8A-C09898EF85C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484FE1C-B506-4F71-876D-D77274404833}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{8F2F36FE-A9B5-4DF1-BFA2-C150D80043C8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="35">
   <si>
     <t>D</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>chl_µgL_calc</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
   </si>
 </sst>
 </file>
@@ -473,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5219CBA-7C88-4F98-9928-49D83AE203FA}">
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:J337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A361" sqref="A338:XFD361"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F326" sqref="F326:F337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,11 +515,11 @@
     <col min="2" max="2" width="10.26953125" customWidth="1"/>
     <col min="3" max="3" width="6.453125" customWidth="1"/>
     <col min="4" max="4" width="5.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="5" max="6" width="6.36328125" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -506,19 +536,22 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -534,20 +567,23 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1">
         <v>6.5</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>30.7</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I2" s="11">
+      <c r="J2" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -563,20 +599,23 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8">
         <v>5.93</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>30.7</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -592,20 +631,23 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1">
         <v>6.6</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>30.7</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I4" s="11">
+      <c r="J4" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -621,20 +663,23 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
         <v>6.1</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>30.7</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I5" s="11">
+      <c r="J5" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -650,20 +695,23 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="8">
         <v>5.8</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>30.7</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -679,20 +727,23 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="8">
         <v>5.9</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>30.7</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I7" s="11">
+      <c r="J7" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -708,20 +759,23 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
         <v>6.1</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>30.7</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I8" s="11">
+      <c r="J8" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -737,20 +791,23 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1">
         <v>6.17</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>30.7</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I9" s="11">
+      <c r="J9" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -766,20 +823,23 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1">
         <v>6.27</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>30.7</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I10" s="11">
+      <c r="J10" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -795,20 +855,23 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="8">
         <v>6.07</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>30.7</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I11" s="11">
+      <c r="J11" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -824,20 +887,23 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1">
         <v>6.43</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>30.7</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -853,20 +919,23 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1">
         <v>5.93</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>30.7</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="9">
         <v>1.0811700000000002</v>
       </c>
-      <c r="I13" s="11">
+      <c r="J13" s="11">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -882,20 +951,20 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <v>7.5</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>30.8</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <v>0.93689100000000003</v>
       </c>
-      <c r="I14" s="11">
+      <c r="J14" s="11">
         <v>8.0909999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -911,20 +980,20 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
         <v>5.9</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>30.9</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
         <v>1.2966660000000001</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>8.0990000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -940,20 +1009,20 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>7.67</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>30.9</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <v>1.1523870000000001</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="11">
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -969,20 +1038,20 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
         <v>7.1</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>30.8</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="9">
         <v>1.1745270000000001</v>
       </c>
-      <c r="I17" s="11">
+      <c r="J17" s="11">
         <v>8.0830000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -998,20 +1067,20 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
         <v>5.8</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <v>30.8</v>
       </c>
-      <c r="H18" s="9">
+      <c r="I18" s="9">
         <v>1.60884</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <v>8.0950000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1027,20 +1096,20 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
-        <v>6</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
+        <v>6</v>
+      </c>
+      <c r="H19" s="10">
         <v>30.6</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="9">
         <v>1.4664060000000001</v>
       </c>
-      <c r="I19" s="11">
+      <c r="J19" s="11">
         <v>8.0890000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1056,20 +1125,20 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <v>7.1</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <v>31</v>
       </c>
-      <c r="H20" s="9">
+      <c r="I20" s="9">
         <v>1.7992440000000001</v>
       </c>
-      <c r="I20" s="11">
+      <c r="J20" s="11">
         <v>8.08</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1085,20 +1154,20 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="8">
         <v>7.13</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>30.9</v>
       </c>
-      <c r="H21" s="9">
+      <c r="I21" s="9">
         <v>1.46862</v>
       </c>
-      <c r="I21" s="11">
+      <c r="J21" s="11">
         <v>8.0760000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1114,20 +1183,20 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>7.27</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <v>31</v>
       </c>
-      <c r="H22" s="9">
+      <c r="I22" s="9">
         <v>1.4354100000000001</v>
       </c>
-      <c r="I22" s="11">
+      <c r="J22" s="11">
         <v>8.0730000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1143,20 +1212,20 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="8">
-        <v>6</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="10">
         <v>30.8</v>
       </c>
-      <c r="H23" s="9">
+      <c r="I23" s="9">
         <v>1.7745210000000002</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>8.0860000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1172,20 +1241,20 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <v>7.37</v>
       </c>
-      <c r="G24" s="10">
+      <c r="H24" s="10">
         <v>31</v>
       </c>
-      <c r="H24" s="9">
+      <c r="I24" s="9">
         <v>1.6748910000000001</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>8.0969999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1201,20 +1270,20 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>7.2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="H25" s="10">
         <v>30.7</v>
       </c>
-      <c r="H25" s="9">
+      <c r="I25" s="9">
         <v>1.555704</v>
       </c>
-      <c r="I25" s="11">
+      <c r="J25" s="11">
         <v>8.08</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1230,20 +1299,23 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="8">
         <v>8.43</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <v>30.9</v>
       </c>
-      <c r="H26" s="9">
+      <c r="I26" s="9">
         <v>1.5110550000000003</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>8.0869999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1259,20 +1331,23 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="8">
         <v>5.63</v>
       </c>
-      <c r="G27" s="10">
+      <c r="H27" s="10">
         <v>30.9</v>
       </c>
-      <c r="H27" s="9">
+      <c r="I27" s="9">
         <v>1.4863320000000002</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11">
         <v>8.109</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1288,20 +1363,23 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <v>31</v>
       </c>
-      <c r="H28" s="9">
+      <c r="I28" s="9">
         <v>1.407735</v>
       </c>
-      <c r="I28" s="11">
+      <c r="J28" s="11">
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1317,20 +1395,23 @@
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H29" s="10">
         <v>30.9</v>
       </c>
-      <c r="H29" s="9">
+      <c r="I29" s="9">
         <v>1.4520150000000001</v>
       </c>
-      <c r="I29" s="11">
+      <c r="J29" s="11">
         <v>8.0839999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1346,20 +1427,23 @@
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8">
         <v>5.63</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <v>30.9</v>
       </c>
-      <c r="H30" s="9">
+      <c r="I30" s="9">
         <v>1.4881770000000001</v>
       </c>
-      <c r="I30" s="11">
+      <c r="J30" s="11">
         <v>8.0860000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1375,20 +1459,23 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="7">
         <v>5.97</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H31" s="10">
         <v>30.9</v>
       </c>
-      <c r="H31" s="9">
+      <c r="I31" s="9">
         <v>1.573785</v>
       </c>
-      <c r="I31" s="11">
+      <c r="J31" s="11">
         <v>8.0950000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1404,20 +1491,23 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="8">
         <v>8.17</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <v>30.9</v>
       </c>
-      <c r="H32" s="9">
+      <c r="I32" s="9">
         <v>1.7671410000000001</v>
       </c>
-      <c r="I32" s="11">
+      <c r="J32" s="11">
         <v>8.0359999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1433,20 +1523,23 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8">
         <v>7.77</v>
       </c>
-      <c r="G33" s="10">
+      <c r="H33" s="10">
         <v>31</v>
       </c>
-      <c r="H33" s="9">
+      <c r="I33" s="9">
         <v>1.7509050000000002</v>
       </c>
-      <c r="I33" s="11">
+      <c r="J33" s="11">
         <v>8.0649999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1462,20 +1555,23 @@
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="8">
         <v>8.67</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="10">
         <v>31</v>
       </c>
-      <c r="H34" s="9">
+      <c r="I34" s="9">
         <v>1.601091</v>
       </c>
-      <c r="I34" s="11">
+      <c r="J34" s="11">
         <v>8.0679999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1491,20 +1587,23 @@
       <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="7">
         <v>5.93</v>
       </c>
-      <c r="G35" s="10">
+      <c r="H35" s="10">
         <v>30.9</v>
       </c>
-      <c r="H35" s="9">
+      <c r="I35" s="9">
         <v>1.6542270000000001</v>
       </c>
-      <c r="I35" s="11">
+      <c r="J35" s="11">
         <v>8.0950000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1520,20 +1619,23 @@
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <v>30.9</v>
       </c>
-      <c r="H36" s="9">
+      <c r="I36" s="9">
         <v>1.740942</v>
       </c>
-      <c r="I36" s="11">
+      <c r="J36" s="11">
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1549,20 +1651,23 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G37" s="10">
+      <c r="H37" s="10">
         <v>31</v>
       </c>
-      <c r="H37" s="9">
+      <c r="I37" s="9">
         <v>2.2095720000000001</v>
       </c>
-      <c r="I37" s="11">
+      <c r="J37" s="11">
         <v>8.0670000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1578,20 +1683,20 @@
       <c r="E38">
         <v>3</v>
       </c>
-      <c r="F38" s="8">
+      <c r="G38" s="8">
         <v>9.33</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <v>30.5</v>
       </c>
-      <c r="H38" s="9">
+      <c r="I38" s="9">
         <v>1.6033050000000002</v>
       </c>
-      <c r="I38" s="11">
+      <c r="J38" s="11">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1607,20 +1712,20 @@
       <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39" s="8">
+      <c r="G39" s="8">
         <v>5.53</v>
       </c>
-      <c r="G39" s="10">
+      <c r="H39" s="10">
         <v>30.8</v>
       </c>
-      <c r="H39" s="9">
+      <c r="I39" s="9">
         <v>1.30257</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1636,20 +1741,20 @@
       <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="8">
+      <c r="G40" s="8">
         <v>9.4700000000000006</v>
       </c>
-      <c r="G40" s="10">
+      <c r="H40" s="10">
         <v>30.9</v>
       </c>
-      <c r="H40" s="9">
+      <c r="I40" s="9">
         <v>1.957176</v>
       </c>
-      <c r="I40" s="11">
+      <c r="J40" s="11">
         <v>8.08</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1665,20 +1770,20 @@
       <c r="E41">
         <v>3</v>
       </c>
-      <c r="F41" s="8">
+      <c r="G41" s="8">
         <v>9.0299999999999994</v>
       </c>
-      <c r="G41" s="10">
+      <c r="H41" s="10">
         <v>31</v>
       </c>
-      <c r="H41" s="9">
+      <c r="I41" s="9">
         <v>1.6497990000000002</v>
       </c>
-      <c r="I41" s="11">
+      <c r="J41" s="11">
         <v>8.06</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1694,20 +1799,20 @@
       <c r="E42">
         <v>3</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>5.7</v>
       </c>
-      <c r="G42" s="10">
+      <c r="H42" s="10">
         <v>30.9</v>
       </c>
-      <c r="H42" s="9">
+      <c r="I42" s="9">
         <v>1.4627160000000001</v>
       </c>
-      <c r="I42" s="11">
+      <c r="J42" s="11">
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1723,20 +1828,20 @@
       <c r="E43">
         <v>3</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G43" s="7">
         <v>5.83</v>
       </c>
-      <c r="G43" s="10">
+      <c r="H43" s="10">
         <v>30.9</v>
       </c>
-      <c r="H43" s="9">
+      <c r="I43" s="9">
         <v>1.7272890000000003</v>
       </c>
-      <c r="I43" s="11">
+      <c r="J43" s="11">
         <v>8.08</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1752,20 +1857,20 @@
       <c r="E44">
         <v>3</v>
       </c>
-      <c r="F44" s="8">
+      <c r="G44" s="8">
         <v>9.0299999999999994</v>
       </c>
-      <c r="G44" s="10">
+      <c r="H44" s="10">
         <v>31</v>
       </c>
-      <c r="H44" s="9">
+      <c r="I44" s="9">
         <v>1.8826380000000003</v>
       </c>
-      <c r="I44" s="11">
+      <c r="J44" s="11">
         <v>8.09</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1781,20 +1886,20 @@
       <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="8">
+      <c r="G45" s="8">
         <v>8.67</v>
       </c>
-      <c r="G45" s="10">
+      <c r="H45" s="10">
         <v>30.9</v>
       </c>
-      <c r="H45" s="9">
+      <c r="I45" s="9">
         <v>2.0604960000000001</v>
       </c>
-      <c r="I45" s="11">
+      <c r="J45" s="11">
         <v>8.07</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1810,20 +1915,20 @@
       <c r="E46">
         <v>3</v>
       </c>
-      <c r="F46" s="8">
+      <c r="G46" s="8">
         <v>9.27</v>
       </c>
-      <c r="G46" s="10">
+      <c r="H46" s="10">
         <v>31</v>
       </c>
-      <c r="H46" s="9">
+      <c r="I46" s="9">
         <v>1.9973970000000003</v>
       </c>
-      <c r="I46" s="11">
+      <c r="J46" s="11">
         <v>8.08</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1839,20 +1944,20 @@
       <c r="E47">
         <v>3</v>
       </c>
-      <c r="F47" s="7">
+      <c r="G47" s="7">
         <v>5.9</v>
       </c>
-      <c r="G47" s="10">
+      <c r="H47" s="10">
         <v>30.9</v>
       </c>
-      <c r="H47" s="9">
+      <c r="I47" s="9">
         <v>1.481535</v>
       </c>
-      <c r="I47" s="11">
+      <c r="J47" s="11">
         <v>8.1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1868,20 +1973,20 @@
       <c r="E48">
         <v>3</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="7">
         <v>8.9</v>
       </c>
-      <c r="G48" s="10">
+      <c r="H48" s="10">
         <v>30.7</v>
       </c>
-      <c r="H48" s="9">
+      <c r="I48" s="9">
         <v>1.7564400000000002</v>
       </c>
-      <c r="I48" s="11">
+      <c r="J48" s="11">
         <v>8.09</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1897,20 +2002,20 @@
       <c r="E49">
         <v>3</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G49" s="7">
         <v>9.0299999999999994</v>
       </c>
-      <c r="G49" s="10">
+      <c r="H49" s="10">
         <v>30.9</v>
       </c>
-      <c r="H49" s="9">
+      <c r="I49" s="9">
         <v>1.644633</v>
       </c>
-      <c r="I49" s="11">
+      <c r="J49" s="11">
         <v>8.09</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1926,20 +2031,20 @@
       <c r="E50">
         <v>4</v>
       </c>
-      <c r="F50" s="8">
+      <c r="G50" s="8">
         <v>10.53</v>
       </c>
-      <c r="G50" s="10">
+      <c r="H50" s="10">
         <v>30.9</v>
       </c>
-      <c r="H50" s="9">
+      <c r="I50" s="9">
         <v>2.7479430000000002</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <v>8.0839999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1955,20 +2060,20 @@
       <c r="E51">
         <v>4</v>
       </c>
-      <c r="F51" s="8">
+      <c r="G51" s="8">
         <v>5.47</v>
       </c>
-      <c r="G51" s="10">
+      <c r="H51" s="10">
         <v>30.8</v>
       </c>
-      <c r="H51" s="9">
+      <c r="I51" s="9">
         <v>2.20662</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <v>8.0850000000000009</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1984,20 +2089,20 @@
       <c r="E52">
         <v>4</v>
       </c>
-      <c r="F52" s="8">
+      <c r="G52" s="8">
         <v>10.42</v>
       </c>
-      <c r="G52" s="10">
+      <c r="H52" s="10">
         <v>31</v>
       </c>
-      <c r="H52" s="9">
+      <c r="I52" s="9">
         <v>2.1663990000000002</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <v>8.0579999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2013,20 +2118,20 @@
       <c r="E53">
         <v>4</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G53" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="G53" s="10">
+      <c r="H53" s="10">
         <v>31</v>
       </c>
-      <c r="H53" s="9">
+      <c r="I53" s="9">
         <v>2.5911180000000003</v>
       </c>
-      <c r="I53" s="11">
+      <c r="J53" s="11">
         <v>8.0679999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2042,20 +2147,20 @@
       <c r="E54">
         <v>4</v>
       </c>
-      <c r="F54" s="7">
+      <c r="G54" s="7">
         <v>5.7</v>
       </c>
-      <c r="G54" s="10">
+      <c r="H54" s="10">
         <v>30.8</v>
       </c>
-      <c r="H54" s="9">
+      <c r="I54" s="9">
         <v>1.9136340000000001</v>
       </c>
-      <c r="I54" s="12">
+      <c r="J54" s="12">
         <v>8.1010000000000009</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2071,20 +2176,20 @@
       <c r="E55">
         <v>4</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G55" s="7">
         <v>5.9</v>
       </c>
-      <c r="G55" s="10">
+      <c r="H55" s="10">
         <v>30.8</v>
       </c>
-      <c r="H55" s="9">
+      <c r="I55" s="9">
         <v>1.9276560000000003</v>
       </c>
-      <c r="I55" s="12">
+      <c r="J55" s="12">
         <v>8.1029999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2100,20 +2205,20 @@
       <c r="E56">
         <v>4</v>
       </c>
-      <c r="F56" s="7">
+      <c r="G56" s="7">
         <v>10</v>
       </c>
-      <c r="G56" s="10">
+      <c r="H56" s="10">
         <v>31</v>
       </c>
-      <c r="H56" s="9">
+      <c r="I56" s="9">
         <v>2.448315</v>
       </c>
-      <c r="I56" s="11">
+      <c r="J56" s="11">
         <v>8.0820000000000007</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2129,20 +2234,20 @@
       <c r="E57">
         <v>4</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G57" s="7">
         <v>9.4700000000000006</v>
       </c>
-      <c r="G57" s="10">
+      <c r="H57" s="10">
         <v>30.9</v>
       </c>
-      <c r="H57" s="9">
+      <c r="I57" s="9">
         <v>2.9154690000000003</v>
       </c>
-      <c r="I57" s="11">
+      <c r="J57" s="11">
         <v>8.0890000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2158,20 +2263,20 @@
       <c r="E58">
         <v>4</v>
       </c>
-      <c r="F58" s="7">
+      <c r="G58" s="7">
         <v>10.130000000000001</v>
       </c>
-      <c r="G58" s="10">
+      <c r="H58" s="10">
         <v>31</v>
       </c>
-      <c r="H58" s="9">
+      <c r="I58" s="9">
         <v>3.2058719999999998</v>
       </c>
-      <c r="I58" s="11">
+      <c r="J58" s="11">
         <v>8.0830000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2187,20 +2292,20 @@
       <c r="E59">
         <v>4</v>
       </c>
-      <c r="F59" s="7">
+      <c r="G59" s="7">
         <v>5.9</v>
       </c>
-      <c r="G59" s="10">
+      <c r="H59" s="10">
         <v>30.9</v>
       </c>
-      <c r="H59" s="9">
+      <c r="I59" s="9">
         <v>2.49444</v>
       </c>
-      <c r="I59" s="12">
+      <c r="J59" s="12">
         <v>8.109</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2216,20 +2321,20 @@
       <c r="E60">
         <v>4</v>
       </c>
-      <c r="F60" s="7">
+      <c r="G60" s="7">
         <v>9.73</v>
       </c>
-      <c r="G60" s="10">
+      <c r="H60" s="10">
         <v>31</v>
       </c>
-      <c r="H60" s="9">
+      <c r="I60" s="9">
         <v>2.8789380000000002</v>
       </c>
-      <c r="I60" s="11">
+      <c r="J60" s="11">
         <v>8.0850000000000009</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2245,20 +2350,20 @@
       <c r="E61">
         <v>4</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G61" s="7">
         <v>9.8699999999999992</v>
       </c>
-      <c r="G61" s="10">
+      <c r="H61" s="10">
         <v>31</v>
       </c>
-      <c r="H61" s="9">
+      <c r="I61" s="9">
         <v>2.8372410000000001</v>
       </c>
-      <c r="I61" s="11">
+      <c r="J61" s="11">
         <v>8.0790000000000006</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2274,20 +2379,20 @@
       <c r="E62">
         <v>5</v>
       </c>
-      <c r="F62" s="8">
+      <c r="G62" s="8">
         <v>11.4</v>
       </c>
-      <c r="G62" s="8">
+      <c r="H62" s="8">
         <v>30.7</v>
       </c>
-      <c r="H62" s="9">
+      <c r="I62" s="9">
         <v>3.8745000000000003</v>
       </c>
-      <c r="I62" s="2">
+      <c r="J62" s="2">
         <v>8.09</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2303,20 +2408,20 @@
       <c r="E63">
         <v>5</v>
       </c>
-      <c r="F63" s="8">
+      <c r="G63" s="8">
         <v>5.63</v>
       </c>
-      <c r="G63" s="10">
+      <c r="H63" s="10">
         <v>30.9</v>
       </c>
-      <c r="H63" s="9">
+      <c r="I63" s="9">
         <v>2.1058829999999999</v>
       </c>
-      <c r="I63" s="2">
+      <c r="J63" s="2">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2332,20 +2437,20 @@
       <c r="E64">
         <v>5</v>
       </c>
-      <c r="F64" s="8">
+      <c r="G64" s="8">
         <v>11.3</v>
       </c>
-      <c r="G64" s="10">
+      <c r="H64" s="10">
         <v>31</v>
       </c>
-      <c r="H64" s="9">
+      <c r="I64" s="9">
         <v>2.7202679999999999</v>
       </c>
-      <c r="I64" s="2">
+      <c r="J64" s="2">
         <v>8.07</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2361,20 +2466,20 @@
       <c r="E65">
         <v>5</v>
       </c>
-      <c r="F65" s="7">
+      <c r="G65" s="7">
         <v>10.93</v>
       </c>
-      <c r="G65" s="10">
+      <c r="H65" s="10">
         <v>31</v>
       </c>
-      <c r="H65" s="9">
+      <c r="I65" s="9">
         <v>2.8420380000000001</v>
       </c>
-      <c r="I65" s="12">
+      <c r="J65" s="12">
         <v>8.08</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2390,20 +2495,20 @@
       <c r="E66">
         <v>5</v>
       </c>
-      <c r="F66" s="7">
+      <c r="G66" s="7">
         <v>5.77</v>
       </c>
-      <c r="G66" s="10">
+      <c r="H66" s="10">
         <v>30.9</v>
       </c>
-      <c r="H66" s="9">
+      <c r="I66" s="9">
         <v>2.2003470000000003</v>
       </c>
-      <c r="I66" s="12">
+      <c r="J66" s="12">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2419,20 +2524,20 @@
       <c r="E67">
         <v>5</v>
       </c>
-      <c r="F67" s="7">
+      <c r="G67" s="7">
         <v>5.77</v>
       </c>
-      <c r="G67" s="10">
+      <c r="H67" s="10">
         <v>30.9</v>
       </c>
-      <c r="H67" s="9">
+      <c r="I67" s="9">
         <v>2.2925970000000002</v>
       </c>
-      <c r="I67" s="12">
+      <c r="J67" s="12">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2448,20 +2553,20 @@
       <c r="E68">
         <v>5</v>
       </c>
-      <c r="F68" s="7">
+      <c r="G68" s="7">
         <v>10.87</v>
       </c>
-      <c r="G68" s="10">
+      <c r="H68" s="10">
         <v>31</v>
       </c>
-      <c r="H68" s="9">
+      <c r="I68" s="9">
         <v>3.4364970000000001</v>
       </c>
-      <c r="I68" s="12">
+      <c r="J68" s="12">
         <v>8.09</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2477,20 +2582,20 @@
       <c r="E69">
         <v>5</v>
       </c>
-      <c r="F69" s="7">
+      <c r="G69" s="7">
         <v>10.4</v>
       </c>
-      <c r="G69" s="10">
+      <c r="H69" s="10">
         <v>31</v>
       </c>
-      <c r="H69" s="9">
+      <c r="I69" s="9">
         <v>3.2752440000000003</v>
       </c>
-      <c r="I69" s="12">
+      <c r="J69" s="12">
         <v>8.08</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2506,20 +2611,20 @@
       <c r="E70">
         <v>5</v>
       </c>
-      <c r="F70" s="7">
+      <c r="G70" s="7">
         <v>11.03</v>
       </c>
-      <c r="G70" s="10">
+      <c r="H70" s="10">
         <v>31.1</v>
       </c>
-      <c r="H70" s="9">
+      <c r="I70" s="9">
         <v>3.1848390000000002</v>
       </c>
-      <c r="I70" s="12">
+      <c r="J70" s="12">
         <v>8.07</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2535,20 +2640,20 @@
       <c r="E71">
         <v>5</v>
       </c>
-      <c r="F71" s="7">
+      <c r="G71" s="7">
         <v>5.9</v>
       </c>
-      <c r="G71" s="10">
+      <c r="H71" s="10">
         <v>30.9</v>
       </c>
-      <c r="H71" s="9">
+      <c r="I71" s="9">
         <v>2.80809</v>
       </c>
-      <c r="I71" s="12">
+      <c r="J71" s="12">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2564,20 +2669,20 @@
       <c r="E72">
         <v>5</v>
       </c>
-      <c r="F72" s="7">
+      <c r="G72" s="7">
         <v>10.57</v>
       </c>
-      <c r="G72" s="10">
+      <c r="H72" s="10">
         <v>30.9</v>
       </c>
-      <c r="H72" s="9">
+      <c r="I72" s="9">
         <v>3.1567950000000002</v>
       </c>
-      <c r="I72" s="12">
+      <c r="J72" s="12">
         <v>8.09</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2593,20 +2698,20 @@
       <c r="E73">
         <v>5</v>
       </c>
-      <c r="F73" s="7">
+      <c r="G73" s="7">
         <v>10.87</v>
       </c>
-      <c r="G73" s="10">
+      <c r="H73" s="10">
         <v>31</v>
       </c>
-      <c r="H73" s="9">
+      <c r="I73" s="9">
         <v>2.7597510000000005</v>
       </c>
-      <c r="I73" s="12">
+      <c r="J73" s="12">
         <v>8.08</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2622,20 +2727,23 @@
       <c r="E74">
         <v>6</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="8">
         <v>12.37</v>
       </c>
-      <c r="G74" s="8">
+      <c r="H74" s="8">
         <v>31</v>
       </c>
-      <c r="H74" s="1">
+      <c r="I74" s="1">
         <v>5.4279900000000003</v>
       </c>
-      <c r="I74" s="2">
+      <c r="J74" s="2">
         <v>8.11</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2651,20 +2759,23 @@
       <c r="E75">
         <v>6</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="8">
         <v>5.5</v>
       </c>
-      <c r="G75" s="8">
+      <c r="H75" s="8">
         <v>30.9</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <v>3.1032899999999999</v>
       </c>
-      <c r="I75" s="2">
+      <c r="J75" s="2">
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2680,20 +2791,23 @@
       <c r="E76">
         <v>6</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="8">
         <v>12.23</v>
       </c>
-      <c r="G76" s="8">
+      <c r="H76" s="8">
         <v>31</v>
       </c>
-      <c r="H76" s="1">
+      <c r="I76" s="1">
         <v>3.9483000000000001</v>
       </c>
-      <c r="I76" s="2">
+      <c r="J76" s="2">
         <v>8.08</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2709,20 +2823,23 @@
       <c r="E77">
         <v>6</v>
       </c>
-      <c r="F77" s="7">
-        <v>12</v>
-      </c>
-      <c r="G77" s="6">
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="7">
+        <v>12</v>
+      </c>
+      <c r="H77" s="6">
         <v>31.1</v>
       </c>
-      <c r="H77" s="9">
+      <c r="I77" s="9">
         <v>3.9593700000000003</v>
       </c>
-      <c r="I77" s="12">
+      <c r="J77" s="12">
         <v>8.08</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2738,20 +2855,23 @@
       <c r="E78">
         <v>6</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="7">
         <v>5.7</v>
       </c>
-      <c r="G78" s="10">
+      <c r="H78" s="10">
         <v>31</v>
       </c>
-      <c r="H78" s="9">
+      <c r="I78" s="9">
         <v>2.6007120000000001</v>
       </c>
-      <c r="I78" s="12">
+      <c r="J78" s="12">
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2767,20 +2887,23 @@
       <c r="E79">
         <v>6</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="7">
         <v>5.83</v>
       </c>
-      <c r="G79" s="10">
+      <c r="H79" s="10">
         <v>31</v>
       </c>
-      <c r="H79" s="9">
+      <c r="I79" s="9">
         <v>2.9671289999999999</v>
       </c>
-      <c r="I79" s="12">
+      <c r="J79" s="12">
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2796,20 +2919,23 @@
       <c r="E80">
         <v>6</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="7">
         <v>11.67</v>
       </c>
-      <c r="G80" s="6">
+      <c r="H80" s="6">
         <v>31</v>
       </c>
-      <c r="H80" s="9">
+      <c r="I80" s="9">
         <v>4.67523</v>
       </c>
-      <c r="I80" s="12">
+      <c r="J80" s="12">
         <v>8.11</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2825,20 +2951,23 @@
       <c r="E81">
         <v>6</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="7">
         <v>11.23</v>
       </c>
-      <c r="G81" s="10">
+      <c r="H81" s="10">
         <v>31.1</v>
       </c>
-      <c r="H81" s="9">
+      <c r="I81" s="9">
         <v>4.2730199999999998</v>
       </c>
-      <c r="I81" s="12">
+      <c r="J81" s="12">
         <v>8.09</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2854,20 +2983,23 @@
       <c r="E82">
         <v>6</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="7">
         <v>11.83</v>
       </c>
-      <c r="G82" s="10">
+      <c r="H82" s="10">
         <v>31</v>
       </c>
-      <c r="H82" s="9">
+      <c r="I82" s="9">
         <v>4.3652699999999998</v>
       </c>
-      <c r="I82" s="12">
+      <c r="J82" s="12">
         <v>8.09</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2883,20 +3015,23 @@
       <c r="E83">
         <v>6</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="7">
         <v>5.9</v>
       </c>
-      <c r="G83" s="10">
+      <c r="H83" s="10">
         <v>31</v>
       </c>
-      <c r="H83" s="9">
+      <c r="I83" s="9">
         <v>3.2722920000000006</v>
       </c>
-      <c r="I83" s="12">
+      <c r="J83" s="12">
         <v>8.1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2912,20 +3047,23 @@
       <c r="E84">
         <v>6</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="7">
         <v>11.4</v>
       </c>
-      <c r="G84" s="10">
+      <c r="H84" s="10">
         <v>31</v>
       </c>
-      <c r="H84" s="9">
+      <c r="I84" s="9">
         <v>4.07376</v>
       </c>
-      <c r="I84" s="12">
+      <c r="J84" s="12">
         <v>8.1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2941,20 +3079,23 @@
       <c r="E85">
         <v>6</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="7">
         <v>11.77</v>
       </c>
-      <c r="G85" s="6">
+      <c r="H85" s="6">
         <v>30.9</v>
       </c>
-      <c r="H85" s="9">
+      <c r="I85" s="9">
         <v>3.4885260000000002</v>
       </c>
-      <c r="I85" s="12">
+      <c r="J85" s="12">
         <v>8.09</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2970,20 +3111,20 @@
       <c r="E86">
         <v>7</v>
       </c>
-      <c r="F86" s="8">
+      <c r="G86" s="8">
         <v>13.47</v>
       </c>
-      <c r="G86" s="8">
+      <c r="H86" s="8">
         <v>30.9</v>
       </c>
-      <c r="H86" s="1">
+      <c r="I86" s="1">
         <v>7.7895900000000005</v>
       </c>
-      <c r="I86" s="2">
+      <c r="J86" s="2">
         <v>8.1349999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2999,20 +3140,20 @@
       <c r="E87">
         <v>7</v>
       </c>
-      <c r="F87" s="8">
+      <c r="G87" s="8">
         <v>5.43</v>
       </c>
-      <c r="G87" s="8">
+      <c r="H87" s="8">
         <v>30.9</v>
       </c>
-      <c r="H87" s="1">
+      <c r="I87" s="1">
         <v>4.0995900000000001</v>
       </c>
-      <c r="I87" s="2">
+      <c r="J87" s="2">
         <v>8.1449999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3028,20 +3169,20 @@
       <c r="E88">
         <v>7</v>
       </c>
-      <c r="F88" s="8">
+      <c r="G88" s="8">
         <v>12.3</v>
       </c>
-      <c r="G88" s="8">
+      <c r="H88" s="8">
         <v>31.1</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>4.2102899999999996</v>
       </c>
-      <c r="I88" s="2">
+      <c r="J88" s="2">
         <v>8.0920000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3057,20 +3198,20 @@
       <c r="E89">
         <v>7</v>
       </c>
-      <c r="F89" s="7">
+      <c r="G89" s="7">
         <v>12.73</v>
       </c>
-      <c r="G89" s="6">
+      <c r="H89" s="6">
         <v>31</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5.2213500000000002</v>
       </c>
-      <c r="I89" s="12">
+      <c r="J89" s="12">
         <v>8.0860000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3086,20 +3227,20 @@
       <c r="E90">
         <v>7</v>
       </c>
-      <c r="F90" s="7">
+      <c r="G90" s="7">
         <v>5.77</v>
       </c>
-      <c r="G90" s="6">
+      <c r="H90" s="6">
         <v>30.9</v>
       </c>
-      <c r="H90" s="3">
+      <c r="I90" s="3">
         <v>3.8154600000000003</v>
       </c>
-      <c r="I90" s="12">
+      <c r="J90" s="12">
         <v>8.1379999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3115,20 +3256,20 @@
       <c r="E91">
         <v>7</v>
       </c>
-      <c r="F91" s="7">
+      <c r="G91" s="7">
         <v>5.87</v>
       </c>
-      <c r="G91" s="6">
+      <c r="H91" s="6">
         <v>30.9</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>3.8597399999999999</v>
       </c>
-      <c r="I91" s="12">
+      <c r="J91" s="12">
         <v>8.1389999999999993</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3144,20 +3285,20 @@
       <c r="E92">
         <v>7</v>
       </c>
-      <c r="F92" s="7">
+      <c r="G92" s="7">
         <v>12.57</v>
       </c>
-      <c r="G92" s="6">
+      <c r="H92" s="6">
         <v>31</v>
       </c>
-      <c r="H92" s="3">
+      <c r="I92" s="3">
         <v>7.154910000000001</v>
       </c>
-      <c r="I92" s="12">
+      <c r="J92" s="12">
         <v>8.1059999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3173,20 +3314,20 @@
       <c r="E93">
         <v>7</v>
       </c>
-      <c r="F93" s="7">
+      <c r="G93" s="7">
         <v>11.4</v>
       </c>
-      <c r="G93" s="6">
+      <c r="H93" s="6">
         <v>30.9</v>
       </c>
-      <c r="H93" s="3">
+      <c r="I93" s="3">
         <v>5.8191300000000004</v>
       </c>
-      <c r="I93" s="12">
+      <c r="J93" s="12">
         <v>8.109</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3202,20 +3343,20 @@
       <c r="E94">
         <v>7</v>
       </c>
-      <c r="F94" s="7">
+      <c r="G94" s="7">
         <v>11.8</v>
       </c>
-      <c r="G94" s="6">
+      <c r="H94" s="6">
         <v>31</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5.4206100000000008</v>
       </c>
-      <c r="I94" s="12">
+      <c r="J94" s="12">
         <v>8.0980000000000008</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3231,20 +3372,20 @@
       <c r="E95">
         <v>7</v>
       </c>
-      <c r="F95" s="7">
+      <c r="G95" s="7">
         <v>6.03</v>
       </c>
-      <c r="G95" s="6">
+      <c r="H95" s="6">
         <v>30.9</v>
       </c>
-      <c r="H95" s="3">
+      <c r="I95" s="3">
         <v>4.6383300000000007</v>
       </c>
-      <c r="I95" s="12">
+      <c r="J95" s="12">
         <v>8.1470000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3260,20 +3401,20 @@
       <c r="E96">
         <v>7</v>
       </c>
-      <c r="F96" s="7">
+      <c r="G96" s="7">
         <v>11.33</v>
       </c>
-      <c r="G96" s="6">
+      <c r="H96" s="6">
         <v>31.1</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>5.7305700000000011</v>
       </c>
-      <c r="I96" s="12">
+      <c r="J96" s="12">
         <v>8.1110000000000007</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3289,20 +3430,20 @@
       <c r="E97">
         <v>7</v>
       </c>
-      <c r="F97" s="7">
+      <c r="G97" s="7">
         <v>12.7</v>
       </c>
-      <c r="G97" s="6">
+      <c r="H97" s="6">
         <v>31.1</v>
       </c>
-      <c r="H97" s="3">
+      <c r="I97" s="3">
         <v>4.0184100000000003</v>
       </c>
-      <c r="I97" s="12">
+      <c r="J97" s="12">
         <v>8.0739999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3318,20 +3459,20 @@
       <c r="E98">
         <v>8</v>
       </c>
-      <c r="F98" s="8">
+      <c r="G98" s="8">
         <v>13.4</v>
       </c>
-      <c r="G98" s="8">
+      <c r="H98" s="8">
         <v>30.8</v>
       </c>
-      <c r="H98" s="1">
+      <c r="I98" s="1">
         <v>8.5940100000000008</v>
       </c>
-      <c r="I98" s="2">
+      <c r="J98" s="2">
         <v>8.1159999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3347,20 +3488,20 @@
       <c r="E99">
         <v>8</v>
       </c>
-      <c r="F99" s="8">
+      <c r="G99" s="8">
         <v>5.3</v>
       </c>
-      <c r="G99" s="8">
+      <c r="H99" s="8">
         <v>30.9</v>
       </c>
-      <c r="H99" s="1">
+      <c r="I99" s="1">
         <v>4.3542000000000005</v>
       </c>
-      <c r="I99" s="2">
+      <c r="J99" s="2">
         <v>8.0709999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3376,20 +3517,20 @@
       <c r="E100">
         <v>8</v>
       </c>
-      <c r="F100" s="8">
+      <c r="G100" s="8">
         <v>12.17</v>
       </c>
-      <c r="G100" s="8">
+      <c r="H100" s="8">
         <v>31</v>
       </c>
-      <c r="H100" s="1">
+      <c r="I100" s="1">
         <v>4.9150799999999997</v>
       </c>
-      <c r="I100" s="2">
+      <c r="J100" s="2">
         <v>8.0069999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3405,20 +3546,20 @@
       <c r="E101">
         <v>8</v>
       </c>
-      <c r="F101" s="7">
+      <c r="G101" s="7">
         <v>13.77</v>
       </c>
-      <c r="G101" s="6">
+      <c r="H101" s="6">
         <v>31</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4.9298400000000004</v>
       </c>
-      <c r="I101" s="12">
+      <c r="J101" s="12">
         <v>8.0530000000000008</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3434,20 +3575,20 @@
       <c r="E102">
         <v>8</v>
       </c>
-      <c r="F102" s="7">
+      <c r="G102" s="7">
         <v>5.73</v>
       </c>
-      <c r="G102" s="6">
+      <c r="H102" s="6">
         <v>30.8</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4.4796600000000009</v>
       </c>
-      <c r="I102" s="12">
+      <c r="J102" s="12">
         <v>8.1140000000000008</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3463,20 +3604,20 @@
       <c r="E103">
         <v>8</v>
       </c>
-      <c r="F103" s="7">
+      <c r="G103" s="7">
         <v>5.73</v>
       </c>
-      <c r="G103" s="6">
+      <c r="H103" s="6">
         <v>30.9</v>
       </c>
-      <c r="H103" s="3">
+      <c r="I103" s="3">
         <v>4.2324300000000008</v>
       </c>
-      <c r="I103" s="12">
+      <c r="J103" s="12">
         <v>8.125</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3492,20 +3633,20 @@
       <c r="E104">
         <v>8</v>
       </c>
-      <c r="F104" s="7">
+      <c r="G104" s="7">
         <v>13.47</v>
       </c>
-      <c r="G104" s="6">
+      <c r="H104" s="6">
         <v>31.1</v>
       </c>
-      <c r="H104" s="3">
+      <c r="I104" s="3">
         <v>5.8302000000000005</v>
       </c>
-      <c r="I104" s="12">
+      <c r="J104" s="12">
         <v>8.11</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3521,20 +3662,20 @@
       <c r="E105">
         <v>8</v>
       </c>
-      <c r="F105" s="7">
+      <c r="G105" s="7">
         <v>11.5</v>
       </c>
-      <c r="G105" s="6">
+      <c r="H105" s="6">
         <v>31.1</v>
       </c>
-      <c r="H105" s="3">
+      <c r="I105" s="3">
         <v>6.1586100000000004</v>
       </c>
-      <c r="I105" s="12">
+      <c r="J105" s="12">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3550,20 +3691,20 @@
       <c r="E106">
         <v>8</v>
       </c>
-      <c r="F106" s="7">
+      <c r="G106" s="7">
         <v>11.67</v>
       </c>
-      <c r="G106" s="6">
+      <c r="H106" s="6">
         <v>31</v>
       </c>
-      <c r="H106" s="3">
+      <c r="I106" s="3">
         <v>6.05898</v>
       </c>
-      <c r="I106" s="12">
+      <c r="J106" s="12">
         <v>8.1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3579,20 +3720,20 @@
       <c r="E107">
         <v>8</v>
       </c>
-      <c r="F107" s="7">
+      <c r="G107" s="7">
         <v>5.7</v>
       </c>
-      <c r="G107" s="6">
+      <c r="H107" s="6">
         <v>30.8</v>
       </c>
-      <c r="H107" s="3">
+      <c r="I107" s="3">
         <v>3.8265300000000004</v>
       </c>
-      <c r="I107" s="12">
+      <c r="J107" s="12">
         <v>8.1440000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3608,20 +3749,20 @@
       <c r="E108">
         <v>8</v>
       </c>
-      <c r="F108" s="7">
+      <c r="G108" s="7">
         <v>11.47</v>
       </c>
-      <c r="G108" s="6">
+      <c r="H108" s="6">
         <v>30.9</v>
       </c>
-      <c r="H108" s="3">
+      <c r="I108" s="3">
         <v>6.0848100000000009</v>
       </c>
-      <c r="I108" s="12">
+      <c r="J108" s="12">
         <v>8.1050000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3637,20 +3778,20 @@
       <c r="E109">
         <v>8</v>
       </c>
-      <c r="F109" s="7">
+      <c r="G109" s="7">
         <v>13.73</v>
       </c>
-      <c r="G109" s="6">
+      <c r="H109" s="6">
         <v>31</v>
       </c>
-      <c r="H109" s="3">
+      <c r="I109" s="3">
         <v>5.7785400000000005</v>
       </c>
-      <c r="I109" s="12">
+      <c r="J109" s="12">
         <v>8.0679999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3666,20 +3807,23 @@
       <c r="E110">
         <v>9</v>
       </c>
-      <c r="F110" s="8">
+      <c r="F110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="8">
         <v>14.6</v>
       </c>
-      <c r="G110" s="8">
+      <c r="H110" s="8">
         <v>31</v>
       </c>
-      <c r="H110" s="1">
+      <c r="I110" s="1">
         <v>8.564490000000001</v>
       </c>
-      <c r="I110" s="2">
+      <c r="J110" s="2">
         <v>8.17</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3695,20 +3839,23 @@
       <c r="E111">
         <v>9</v>
       </c>
-      <c r="F111" s="8">
+      <c r="F111" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="8">
         <v>5.83</v>
       </c>
-      <c r="G111" s="8">
+      <c r="H111" s="8">
         <v>31</v>
       </c>
-      <c r="H111" s="1">
+      <c r="I111" s="1">
         <v>5.4870299999999999</v>
       </c>
-      <c r="I111" s="2">
+      <c r="J111" s="2">
         <v>8.16</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3724,20 +3871,23 @@
       <c r="E112">
         <v>9</v>
       </c>
-      <c r="F112" s="8">
+      <c r="F112" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" s="8">
         <v>11.5</v>
       </c>
-      <c r="G112" s="8">
+      <c r="H112" s="8">
         <v>31.2</v>
       </c>
-      <c r="H112" s="1">
+      <c r="I112" s="1">
         <v>4.6309500000000003</v>
       </c>
-      <c r="I112" s="2">
+      <c r="J112" s="2">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3753,20 +3903,23 @@
       <c r="E113">
         <v>9</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" s="7">
         <v>14.9</v>
       </c>
-      <c r="G113" s="6">
+      <c r="H113" s="6">
         <v>31.1</v>
       </c>
-      <c r="H113" s="3">
+      <c r="I113" s="3">
         <v>5.9519700000000011</v>
       </c>
-      <c r="I113" s="12">
+      <c r="J113" s="12">
         <v>8.1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3782,20 +3935,23 @@
       <c r="E114">
         <v>9</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" s="7">
         <v>5.73</v>
       </c>
-      <c r="G114" s="6">
+      <c r="H114" s="6">
         <v>31</v>
       </c>
-      <c r="H114" s="3">
+      <c r="I114" s="3">
         <v>4.9667399999999997</v>
       </c>
-      <c r="I114" s="12">
+      <c r="J114" s="12">
         <v>8.15</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3811,20 +3967,23 @@
       <c r="E115">
         <v>9</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" s="7">
         <v>5.9</v>
       </c>
-      <c r="G115" s="6">
+      <c r="H115" s="6">
         <v>30.9</v>
       </c>
-      <c r="H115" s="3">
+      <c r="I115" s="3">
         <v>5.1586200000000009</v>
       </c>
-      <c r="I115" s="12">
+      <c r="J115" s="12">
         <v>8.15</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3840,20 +3999,23 @@
       <c r="E116">
         <v>9</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" s="7">
         <v>14.77</v>
       </c>
-      <c r="G116" s="6">
+      <c r="H116" s="6">
         <v>31.1</v>
       </c>
-      <c r="H116" s="3">
+      <c r="I116" s="3">
         <v>5.9888700000000004</v>
       </c>
-      <c r="I116" s="12">
+      <c r="J116" s="12">
         <v>8.14</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3869,20 +4031,23 @@
       <c r="E117">
         <v>9</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="7">
         <v>12.27</v>
       </c>
-      <c r="G117" s="6">
+      <c r="H117" s="6">
         <v>31.1</v>
       </c>
-      <c r="H117" s="3">
+      <c r="I117" s="3">
         <v>6.7859100000000003</v>
       </c>
-      <c r="I117" s="12">
+      <c r="J117" s="12">
         <v>8.15</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3898,20 +4063,23 @@
       <c r="E118">
         <v>9</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="7">
         <v>11.63</v>
       </c>
-      <c r="G118" s="6">
+      <c r="H118" s="6">
         <v>31.1</v>
       </c>
-      <c r="H118" s="3">
+      <c r="I118" s="3">
         <v>5.3283600000000009</v>
       </c>
-      <c r="I118" s="12">
+      <c r="J118" s="12">
         <v>8.14</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3927,20 +4095,23 @@
       <c r="E119">
         <v>9</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" s="7">
         <v>5.8</v>
       </c>
-      <c r="G119" s="6">
+      <c r="H119" s="6">
         <v>31</v>
       </c>
-      <c r="H119" s="3">
+      <c r="I119" s="3">
         <v>6.6936600000000004</v>
       </c>
-      <c r="I119" s="12">
+      <c r="J119" s="12">
         <v>8.19</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3956,20 +4127,23 @@
       <c r="E120">
         <v>9</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="7">
         <v>11.93</v>
       </c>
-      <c r="G120" s="6">
+      <c r="H120" s="6">
         <v>31.1</v>
       </c>
-      <c r="H120" s="3">
+      <c r="I120" s="3">
         <v>6.7047299999999996</v>
       </c>
-      <c r="I120" s="12">
+      <c r="J120" s="12">
         <v>8.14</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3985,20 +4159,23 @@
       <c r="E121">
         <v>9</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="7">
         <v>14.67</v>
       </c>
-      <c r="G121" s="6">
+      <c r="H121" s="6">
         <v>31.1</v>
       </c>
-      <c r="H121" s="3">
+      <c r="I121" s="3">
         <v>3.3604829999999999</v>
       </c>
-      <c r="I121" s="12">
+      <c r="J121" s="12">
         <v>8.09</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4014,20 +4191,20 @@
       <c r="E122">
         <v>10</v>
       </c>
-      <c r="F122" s="8">
+      <c r="G122" s="8">
         <v>16.03</v>
       </c>
-      <c r="G122" s="8">
+      <c r="H122" s="8">
         <v>31</v>
       </c>
-      <c r="H122" s="1">
+      <c r="I122" s="1">
         <v>2.9409300000000003</v>
       </c>
-      <c r="I122" s="2">
+      <c r="J122" s="2">
         <v>8.1790000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4043,20 +4220,20 @@
       <c r="E123">
         <v>10</v>
       </c>
-      <c r="F123" s="8">
+      <c r="G123" s="8">
         <v>5.83</v>
       </c>
-      <c r="G123" s="8">
+      <c r="H123" s="8">
         <v>31.1</v>
       </c>
-      <c r="H123" s="1">
+      <c r="I123" s="1">
         <v>5.4612000000000007</v>
       </c>
-      <c r="I123" s="2">
+      <c r="J123" s="2">
         <v>8.1679999999999993</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4072,20 +4249,20 @@
       <c r="E124">
         <v>10</v>
       </c>
-      <c r="F124" s="8">
+      <c r="G124" s="8">
         <v>12.37</v>
       </c>
-      <c r="G124" s="8">
+      <c r="H124" s="8">
         <v>31.1</v>
       </c>
-      <c r="H124" s="1">
+      <c r="I124" s="1">
         <v>3.4322535000000003</v>
       </c>
-      <c r="I124" s="2">
+      <c r="J124" s="2">
         <v>8.125</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4101,20 +4278,20 @@
       <c r="E125">
         <v>10</v>
       </c>
-      <c r="F125" s="7">
+      <c r="G125" s="7">
         <v>15.7</v>
       </c>
-      <c r="G125" s="6">
+      <c r="H125" s="6">
         <v>31.1</v>
       </c>
-      <c r="H125" s="3">
+      <c r="I125" s="3">
         <v>3.4062390000000002</v>
       </c>
-      <c r="I125" s="12">
+      <c r="J125" s="12">
         <v>8.0960000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4130,20 +4307,20 @@
       <c r="E126">
         <v>10</v>
       </c>
-      <c r="F126" s="7">
+      <c r="G126" s="7">
         <v>6.17</v>
       </c>
-      <c r="G126" s="6">
+      <c r="H126" s="6">
         <v>31.1</v>
       </c>
-      <c r="H126" s="3">
+      <c r="I126" s="3">
         <v>5.0995799999999996</v>
       </c>
-      <c r="I126" s="12">
+      <c r="J126" s="12">
         <v>8.157</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4159,20 +4336,20 @@
       <c r="E127">
         <v>10</v>
       </c>
-      <c r="F127" s="7">
+      <c r="G127" s="7">
         <v>5.87</v>
       </c>
-      <c r="G127" s="6">
+      <c r="H127" s="6">
         <v>31</v>
       </c>
-      <c r="H127" s="3">
+      <c r="I127" s="3">
         <v>5.5534500000000007</v>
       </c>
-      <c r="I127" s="12">
+      <c r="J127" s="12">
         <v>8.1679999999999993</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4188,20 +4365,20 @@
       <c r="E128">
         <v>10</v>
       </c>
-      <c r="F128" s="7">
+      <c r="G128" s="7">
         <v>15.77</v>
       </c>
-      <c r="G128" s="6">
+      <c r="H128" s="6">
         <v>31.1</v>
       </c>
-      <c r="H128" s="3">
+      <c r="I128" s="3">
         <v>4.30992</v>
       </c>
-      <c r="I128" s="12">
+      <c r="J128" s="12">
         <v>8.1359999999999992</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4217,20 +4394,20 @@
       <c r="E129">
         <v>10</v>
       </c>
-      <c r="F129" s="7">
+      <c r="G129" s="7">
         <v>12.23</v>
       </c>
-      <c r="G129" s="6">
+      <c r="H129" s="6">
         <v>31</v>
       </c>
-      <c r="H129" s="3">
+      <c r="I129" s="3">
         <v>5.1770700000000005</v>
       </c>
-      <c r="I129" s="12">
+      <c r="J129" s="12">
         <v>8.1549999999999994</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4246,20 +4423,20 @@
       <c r="E130">
         <v>10</v>
       </c>
-      <c r="F130" s="7">
+      <c r="G130" s="7">
         <v>11.77</v>
       </c>
-      <c r="G130" s="6">
+      <c r="H130" s="6">
         <v>31.2</v>
       </c>
-      <c r="H130" s="3">
+      <c r="I130" s="3">
         <v>4.5165600000000001</v>
       </c>
-      <c r="I130" s="12">
+      <c r="J130" s="12">
         <v>8.1449999999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4275,20 +4452,20 @@
       <c r="E131">
         <v>10</v>
       </c>
-      <c r="F131" s="7">
+      <c r="G131" s="7">
         <v>5.67</v>
       </c>
-      <c r="G131" s="6">
+      <c r="H131" s="6">
         <v>31</v>
       </c>
-      <c r="H131" s="3">
+      <c r="I131" s="3">
         <v>6.3468</v>
       </c>
-      <c r="I131" s="12">
+      <c r="J131" s="12">
         <v>8.2110000000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4304,20 +4481,20 @@
       <c r="E132">
         <v>10</v>
       </c>
-      <c r="F132" s="7">
+      <c r="G132" s="7">
         <v>11.9</v>
       </c>
-      <c r="G132" s="6">
+      <c r="H132" s="6">
         <v>31</v>
       </c>
-      <c r="H132" s="3">
+      <c r="I132" s="3">
         <v>4.3136100000000006</v>
       </c>
-      <c r="I132" s="12">
+      <c r="J132" s="12">
         <v>8.1530000000000005</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4333,20 +4510,20 @@
       <c r="E133">
         <v>10</v>
       </c>
-      <c r="F133" s="7">
+      <c r="G133" s="7">
         <v>15.87</v>
       </c>
-      <c r="G133" s="6">
+      <c r="H133" s="6">
         <v>31.3</v>
       </c>
-      <c r="H133" s="3">
+      <c r="I133" s="3">
         <v>2.4092010000000004</v>
       </c>
-      <c r="I133" s="12">
+      <c r="J133" s="12">
         <v>8.0749999999999993</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4362,20 +4539,20 @@
       <c r="E134">
         <v>11</v>
       </c>
-      <c r="F134" s="8">
+      <c r="G134" s="8">
         <v>17</v>
       </c>
-      <c r="G134" s="8">
+      <c r="H134" s="8">
         <v>30.9</v>
       </c>
-      <c r="H134" s="1">
+      <c r="I134" s="1">
         <v>3.8929500000000004</v>
       </c>
-      <c r="I134" s="2">
+      <c r="J134" s="2">
         <v>8.173</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4391,20 +4568,20 @@
       <c r="E135">
         <v>11</v>
       </c>
-      <c r="F135" s="8">
+      <c r="G135" s="8">
         <v>5.9</v>
       </c>
-      <c r="G135" s="8">
+      <c r="H135" s="8">
         <v>30.7</v>
       </c>
-      <c r="H135" s="1">
+      <c r="I135" s="1">
         <v>4.4981100000000005</v>
       </c>
-      <c r="I135" s="2">
+      <c r="J135" s="2">
         <v>8.1760000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4420,20 +4597,20 @@
       <c r="E136">
         <v>11</v>
       </c>
-      <c r="F136" s="8">
+      <c r="G136" s="8">
         <v>12.4</v>
       </c>
-      <c r="G136" s="8">
+      <c r="H136" s="8">
         <v>31.1</v>
       </c>
-      <c r="H136" s="1">
+      <c r="I136" s="1">
         <v>3.1870530000000006</v>
       </c>
-      <c r="I136" s="2">
+      <c r="J136" s="2">
         <v>8.1460000000000008</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4449,20 +4626,20 @@
       <c r="E137">
         <v>11</v>
       </c>
-      <c r="F137" s="7">
+      <c r="G137" s="7">
         <v>16.8</v>
       </c>
-      <c r="G137" s="6">
+      <c r="H137" s="6">
         <v>31.1</v>
       </c>
-      <c r="H137" s="3">
+      <c r="I137" s="3">
         <v>2.8372410000000001</v>
       </c>
-      <c r="I137" s="12">
+      <c r="J137" s="12">
         <v>8.1059999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4478,20 +4655,20 @@
       <c r="E138">
         <v>11</v>
       </c>
-      <c r="F138" s="7">
+      <c r="G138" s="7">
         <v>6.2</v>
       </c>
-      <c r="G138" s="6">
+      <c r="H138" s="6">
         <v>30.8</v>
       </c>
-      <c r="H138" s="3">
+      <c r="I138" s="3">
         <v>5.6936700000000009</v>
       </c>
-      <c r="I138" s="12">
+      <c r="J138" s="12">
         <v>8.18</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4507,20 +4684,20 @@
       <c r="E139">
         <v>11</v>
       </c>
-      <c r="F139" s="7">
+      <c r="G139" s="7">
         <v>5.87</v>
       </c>
-      <c r="G139" s="6">
+      <c r="H139" s="6">
         <v>30.8</v>
       </c>
-      <c r="H139" s="3">
+      <c r="I139" s="3">
         <v>5.5571400000000004</v>
       </c>
-      <c r="I139" s="12">
+      <c r="J139" s="12">
         <v>8.1850000000000005</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4536,20 +4713,20 @@
       <c r="E140">
         <v>11</v>
       </c>
-      <c r="F140" s="7">
+      <c r="G140" s="7">
         <v>16.77</v>
       </c>
-      <c r="G140" s="6">
+      <c r="H140" s="6">
         <v>31.2</v>
       </c>
-      <c r="H140" s="3">
+      <c r="I140" s="3">
         <v>4.45383</v>
       </c>
-      <c r="I140" s="12">
+      <c r="J140" s="12">
         <v>8.16</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4565,20 +4742,20 @@
       <c r="E141">
         <v>11</v>
       </c>
-      <c r="F141" s="7">
+      <c r="G141" s="7">
         <v>11.97</v>
       </c>
-      <c r="G141" s="6">
+      <c r="H141" s="6">
         <v>31.1</v>
       </c>
-      <c r="H141" s="3">
+      <c r="I141" s="3">
         <v>4.6678500000000005</v>
       </c>
-      <c r="I141" s="12">
+      <c r="J141" s="12">
         <v>8.1829999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4594,20 +4771,20 @@
       <c r="E142">
         <v>11</v>
       </c>
-      <c r="F142" s="7">
+      <c r="G142" s="7">
         <v>11.73</v>
       </c>
-      <c r="G142" s="6">
+      <c r="H142" s="6">
         <v>31.1</v>
       </c>
-      <c r="H142" s="3">
+      <c r="I142" s="3">
         <v>3.2748750000000002</v>
       </c>
-      <c r="I142" s="12">
+      <c r="J142" s="12">
         <v>8.157</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4623,20 +4800,20 @@
       <c r="E143">
         <v>11</v>
       </c>
-      <c r="F143" s="7">
+      <c r="G143" s="7">
         <v>5.77</v>
       </c>
-      <c r="G143" s="6">
+      <c r="H143" s="6">
         <v>30.9</v>
       </c>
-      <c r="H143" s="3">
+      <c r="I143" s="3">
         <v>5.7084299999999999</v>
       </c>
-      <c r="I143" s="12">
+      <c r="J143" s="12">
         <v>8.0679999999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4652,20 +4829,20 @@
       <c r="E144">
         <v>11</v>
       </c>
-      <c r="F144" s="7">
+      <c r="G144" s="7">
         <v>11.93</v>
       </c>
-      <c r="G144" s="6">
+      <c r="H144" s="6">
         <v>31.1</v>
       </c>
-      <c r="H144" s="3">
+      <c r="I144" s="3">
         <v>4.2287400000000002</v>
       </c>
-      <c r="I144" s="12">
+      <c r="J144" s="12">
         <v>8.1210000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4681,20 +4858,20 @@
       <c r="E145">
         <v>11</v>
       </c>
-      <c r="F145" s="7">
+      <c r="G145" s="7">
         <v>16.7</v>
       </c>
-      <c r="G145" s="6">
+      <c r="H145" s="6">
         <v>31.1</v>
       </c>
-      <c r="H145" s="3">
+      <c r="I145" s="3">
         <v>2.1335580000000003</v>
       </c>
-      <c r="I145" s="12">
+      <c r="J145" s="12">
         <v>8.09</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4710,20 +4887,23 @@
       <c r="E146">
         <v>12</v>
       </c>
-      <c r="F146" s="8">
+      <c r="F146" t="s">
+        <v>29</v>
+      </c>
+      <c r="G146" s="8">
         <v>17.93</v>
       </c>
-      <c r="G146" s="8">
+      <c r="H146" s="8">
         <v>31.2</v>
       </c>
-      <c r="H146" s="1">
+      <c r="I146" s="1">
         <v>3.9298500000000001</v>
       </c>
-      <c r="I146" s="2">
+      <c r="J146" s="2">
         <v>8.1760000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4739,20 +4919,23 @@
       <c r="E147">
         <v>12</v>
       </c>
-      <c r="F147" s="8">
+      <c r="F147" t="s">
+        <v>29</v>
+      </c>
+      <c r="G147" s="8">
         <v>5.9</v>
       </c>
-      <c r="G147" s="8">
+      <c r="H147" s="8">
         <v>31</v>
       </c>
-      <c r="H147" s="1">
+      <c r="I147" s="1">
         <v>2.7996030000000003</v>
       </c>
-      <c r="I147" s="2">
+      <c r="J147" s="2">
         <v>8.1820000000000004</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4768,20 +4951,23 @@
       <c r="E148">
         <v>12</v>
       </c>
-      <c r="F148" s="8">
+      <c r="F148" t="s">
+        <v>29</v>
+      </c>
+      <c r="G148" s="8">
         <v>12.1</v>
       </c>
-      <c r="G148" s="8">
+      <c r="H148" s="8">
         <v>31.1</v>
       </c>
-      <c r="H148" s="1">
+      <c r="I148" s="1">
         <v>2.9062440000000005</v>
       </c>
-      <c r="I148" s="2">
+      <c r="J148" s="2">
         <v>8.1379999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4797,20 +4983,23 @@
       <c r="E149">
         <v>12</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" t="s">
+        <v>29</v>
+      </c>
+      <c r="G149" s="7">
         <v>17.97</v>
       </c>
-      <c r="G149" s="6">
+      <c r="H149" s="6">
         <v>31.2</v>
       </c>
-      <c r="H149" s="3">
+      <c r="I149" s="3">
         <v>2.6379809999999999</v>
       </c>
-      <c r="I149" s="12">
+      <c r="J149" s="12">
         <v>8.0960000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4826,20 +5015,23 @@
       <c r="E150">
         <v>12</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150" t="s">
+        <v>29</v>
+      </c>
+      <c r="G150" s="7">
         <v>5.8</v>
       </c>
-      <c r="G150" s="6">
+      <c r="H150" s="6">
         <v>31</v>
       </c>
-      <c r="H150" s="3">
+      <c r="I150" s="3">
         <v>4.96305</v>
       </c>
-      <c r="I150" s="12">
+      <c r="J150" s="12">
         <v>8.1859999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4855,20 +5047,23 @@
       <c r="E151">
         <v>12</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" s="7">
         <v>6.07</v>
       </c>
-      <c r="G151" s="6">
+      <c r="H151" s="6">
         <v>31</v>
       </c>
-      <c r="H151" s="3">
+      <c r="I151" s="3">
         <v>4.6014300000000006</v>
       </c>
-      <c r="I151" s="12">
+      <c r="J151" s="12">
         <v>8.1839999999999993</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4884,20 +5079,23 @@
       <c r="E152">
         <v>12</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152" s="7">
         <v>17.93</v>
       </c>
-      <c r="G152" s="6">
+      <c r="H152" s="6">
         <v>31.3</v>
       </c>
-      <c r="H152" s="3">
+      <c r="I152" s="3">
         <v>1.8782100000000002</v>
       </c>
-      <c r="I152" s="12">
+      <c r="J152" s="12">
         <v>8.1989999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4913,20 +5111,23 @@
       <c r="E153">
         <v>12</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" t="s">
+        <v>29</v>
+      </c>
+      <c r="G153" s="7">
         <v>12.07</v>
       </c>
-      <c r="G153" s="6">
+      <c r="H153" s="6">
         <v>31.2</v>
       </c>
-      <c r="H153" s="3">
+      <c r="I153" s="3">
         <v>4.8117600000000005</v>
       </c>
-      <c r="I153" s="12">
+      <c r="J153" s="12">
         <v>8.1890000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4942,20 +5143,23 @@
       <c r="E154">
         <v>12</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G154" s="7">
         <v>11.97</v>
       </c>
-      <c r="G154" s="6">
+      <c r="H154" s="6">
         <v>31.2</v>
       </c>
-      <c r="H154" s="3">
+      <c r="I154" s="3">
         <v>2.602557</v>
       </c>
-      <c r="I154" s="12">
+      <c r="J154" s="12">
         <v>8.1630000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4971,20 +5175,23 @@
       <c r="E155">
         <v>12</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" t="s">
+        <v>29</v>
+      </c>
+      <c r="G155" s="7">
         <v>5.77</v>
       </c>
-      <c r="G155" s="6">
+      <c r="H155" s="6">
         <v>31</v>
       </c>
-      <c r="H155" s="3">
+      <c r="I155" s="3">
         <v>3.2597460000000003</v>
       </c>
-      <c r="I155" s="12">
+      <c r="J155" s="12">
         <v>8.234</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5000,20 +5207,23 @@
       <c r="E156">
         <v>12</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156" s="7">
         <v>12.03</v>
       </c>
-      <c r="G156" s="6">
+      <c r="H156" s="6">
         <v>31.1</v>
       </c>
-      <c r="H156" s="3">
+      <c r="I156" s="3">
         <v>3.8412899999999999</v>
       </c>
-      <c r="I156" s="12">
+      <c r="J156" s="12">
         <v>8.1709999999999994</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5029,20 +5239,23 @@
       <c r="E157">
         <v>12</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" t="s">
+        <v>29</v>
+      </c>
+      <c r="G157" s="7">
         <v>18.03</v>
       </c>
-      <c r="G157" s="6">
+      <c r="H157" s="6">
         <v>31.3</v>
       </c>
-      <c r="H157" s="3">
+      <c r="I157" s="3">
         <v>1.614744</v>
       </c>
-      <c r="I157" s="12">
+      <c r="J157" s="12">
         <v>8.08</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5058,20 +5271,20 @@
       <c r="E158">
         <v>13</v>
       </c>
-      <c r="F158" s="8">
+      <c r="G158" s="8">
         <v>17.93</v>
       </c>
-      <c r="G158" s="8">
+      <c r="H158" s="8">
         <v>31.1</v>
       </c>
-      <c r="H158" s="1">
+      <c r="I158" s="1">
         <v>3.4010730000000002</v>
       </c>
-      <c r="I158" s="2">
+      <c r="J158" s="2">
         <v>8.1940000000000008</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5087,20 +5300,20 @@
       <c r="E159">
         <v>13</v>
       </c>
-      <c r="F159" s="8">
+      <c r="G159" s="8">
         <v>5.87</v>
       </c>
-      <c r="G159" s="8">
+      <c r="H159" s="8">
         <v>31</v>
       </c>
-      <c r="H159" s="1">
+      <c r="I159" s="1">
         <v>1.8951840000000002</v>
       </c>
-      <c r="I159" s="2">
+      <c r="J159" s="2">
         <v>8.1310000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5116,20 +5329,20 @@
       <c r="E160">
         <v>13</v>
       </c>
-      <c r="F160" s="8">
+      <c r="G160" s="8">
         <v>12.1</v>
       </c>
-      <c r="G160" s="8">
+      <c r="H160" s="8">
         <v>31.1</v>
       </c>
-      <c r="H160" s="1">
+      <c r="I160" s="1">
         <v>2.149794</v>
       </c>
-      <c r="I160" s="2">
+      <c r="J160" s="2">
         <v>8.1489999999999991</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5145,20 +5358,20 @@
       <c r="E161">
         <v>13</v>
       </c>
-      <c r="F161" s="7">
+      <c r="G161" s="7">
         <v>18.07</v>
       </c>
-      <c r="G161" s="6">
+      <c r="H161" s="6">
         <v>31.2</v>
       </c>
-      <c r="H161" s="3">
+      <c r="I161" s="3">
         <v>1.7811630000000003</v>
       </c>
-      <c r="I161" s="2">
+      <c r="J161" s="2">
         <v>8.1210000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5174,20 +5387,20 @@
       <c r="E162">
         <v>13</v>
       </c>
-      <c r="F162" s="7">
+      <c r="G162" s="7">
         <v>5.8</v>
       </c>
-      <c r="G162" s="6">
+      <c r="H162" s="6">
         <v>31</v>
       </c>
-      <c r="H162" s="3">
+      <c r="I162" s="3">
         <v>3.2210010000000002</v>
       </c>
-      <c r="I162" s="12">
+      <c r="J162" s="12">
         <v>8.1929999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5203,20 +5416,20 @@
       <c r="E163">
         <v>13</v>
       </c>
-      <c r="F163" s="7">
+      <c r="G163" s="7">
         <v>6.07</v>
       </c>
-      <c r="G163" s="6">
+      <c r="H163" s="6">
         <v>31</v>
       </c>
-      <c r="H163" s="3">
+      <c r="I163" s="3">
         <v>1.6785810000000001</v>
       </c>
-      <c r="I163" s="12">
+      <c r="J163" s="12">
         <v>8.1929999999999996</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5232,20 +5445,20 @@
       <c r="E164">
         <v>13</v>
       </c>
-      <c r="F164" s="7">
+      <c r="G164" s="7">
         <v>18.03</v>
       </c>
-      <c r="G164" s="6">
+      <c r="H164" s="6">
         <v>31.1</v>
       </c>
-      <c r="H164" s="3">
+      <c r="I164" s="3">
         <v>3.0678660000000004</v>
       </c>
-      <c r="I164" s="12">
+      <c r="J164" s="12">
         <v>8.1709999999999994</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5261,20 +5474,20 @@
       <c r="E165">
         <v>13</v>
       </c>
-      <c r="F165" s="7">
-        <v>12</v>
-      </c>
-      <c r="G165" s="6">
+      <c r="G165" s="7">
+        <v>12</v>
+      </c>
+      <c r="H165" s="6">
         <v>31.1</v>
       </c>
-      <c r="H165" s="3">
+      <c r="I165" s="3">
         <v>2.1826349999999999</v>
       </c>
-      <c r="I165" s="12">
+      <c r="J165" s="12">
         <v>8.2089999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5290,20 +5503,20 @@
       <c r="E166">
         <v>13</v>
       </c>
-      <c r="F166" s="7">
+      <c r="G166" s="7">
         <v>11.93</v>
       </c>
-      <c r="G166" s="6">
+      <c r="H166" s="6">
         <v>31.1</v>
       </c>
-      <c r="H166" s="3">
+      <c r="I166" s="3">
         <v>3.155688</v>
       </c>
-      <c r="I166" s="12">
+      <c r="J166" s="12">
         <v>8.1790000000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5319,20 +5532,20 @@
       <c r="E167">
         <v>13</v>
       </c>
-      <c r="F167" s="7">
+      <c r="G167" s="7">
         <v>5.77</v>
       </c>
-      <c r="G167" s="6">
+      <c r="H167" s="6">
         <v>30.9</v>
       </c>
-      <c r="H167" s="3">
+      <c r="I167" s="3">
         <v>2.5531109999999999</v>
       </c>
-      <c r="I167" s="12">
+      <c r="J167" s="12">
         <v>8.2609999999999992</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5348,20 +5561,20 @@
       <c r="E168">
         <v>13</v>
       </c>
-      <c r="F168" s="7">
+      <c r="G168" s="7">
         <v>12.3</v>
       </c>
-      <c r="G168" s="6">
+      <c r="H168" s="6">
         <v>31.2</v>
       </c>
-      <c r="H168" s="3">
+      <c r="I168" s="3">
         <v>2.6656559999999998</v>
       </c>
-      <c r="I168" s="12">
+      <c r="J168" s="12">
         <v>8.2010000000000005</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5377,20 +5590,20 @@
       <c r="E169">
         <v>13</v>
       </c>
-      <c r="F169" s="7">
+      <c r="G169" s="7">
         <v>17.93</v>
       </c>
-      <c r="G169" s="6">
+      <c r="H169" s="6">
         <v>31.2</v>
       </c>
-      <c r="H169" s="3">
+      <c r="I169" s="3">
         <v>1.750167</v>
       </c>
-      <c r="I169" s="12">
+      <c r="J169" s="12">
         <v>8.0960000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5406,20 +5619,20 @@
       <c r="E170">
         <v>14</v>
       </c>
-      <c r="F170" s="8">
+      <c r="G170" s="8">
         <v>17.93</v>
       </c>
-      <c r="G170" s="8">
+      <c r="H170" s="8">
         <v>31.31</v>
       </c>
-      <c r="H170" s="1">
+      <c r="I170" s="1">
         <v>6.2065799999999998</v>
       </c>
-      <c r="I170" s="2">
+      <c r="J170" s="2">
         <v>8.1359999999999992</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5435,20 +5648,20 @@
       <c r="E171">
         <v>14</v>
       </c>
-      <c r="F171" s="8">
+      <c r="G171" s="8">
         <v>5.9</v>
       </c>
-      <c r="G171" s="8">
+      <c r="H171" s="8">
         <v>30.9</v>
       </c>
-      <c r="H171" s="1">
+      <c r="I171" s="1">
         <v>1.1785860000000001</v>
       </c>
-      <c r="I171" s="2">
+      <c r="J171" s="2">
         <v>8.1649999999999991</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5464,20 +5677,20 @@
       <c r="E172">
         <v>14</v>
       </c>
-      <c r="F172" s="8">
+      <c r="G172" s="8">
         <v>12.2</v>
       </c>
-      <c r="G172" s="8">
+      <c r="H172" s="8">
         <v>31.2</v>
       </c>
-      <c r="H172" s="1">
+      <c r="I172" s="1">
         <v>2.1350340000000001</v>
       </c>
-      <c r="I172" s="2">
+      <c r="J172" s="2">
         <v>8.1449999999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5493,20 +5706,20 @@
       <c r="E173">
         <v>14</v>
       </c>
-      <c r="F173" s="7">
+      <c r="G173" s="7">
         <v>18.03</v>
       </c>
-      <c r="G173" s="6">
+      <c r="H173" s="6">
         <v>31.2</v>
       </c>
-      <c r="H173" s="3">
+      <c r="I173" s="3">
         <v>2.8486800000000003</v>
       </c>
-      <c r="I173" s="12">
+      <c r="J173" s="12">
         <v>8.1349999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5522,20 +5735,20 @@
       <c r="E174">
         <v>14</v>
       </c>
-      <c r="F174" s="7">
+      <c r="G174" s="7">
         <v>5.8</v>
       </c>
-      <c r="G174" s="6">
+      <c r="H174" s="6">
         <v>30.7</v>
       </c>
-      <c r="H174" s="3">
+      <c r="I174" s="3">
         <v>2.8793070000000003</v>
       </c>
-      <c r="I174" s="12">
+      <c r="J174" s="12">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5551,20 +5764,20 @@
       <c r="E175">
         <v>14</v>
       </c>
-      <c r="F175" s="7">
+      <c r="G175" s="7">
         <v>5.97</v>
       </c>
-      <c r="G175" s="6">
+      <c r="H175" s="6">
         <v>30.8</v>
       </c>
-      <c r="H175" s="3">
+      <c r="I175" s="3">
         <v>3.4630649999999998</v>
       </c>
-      <c r="I175" s="12">
+      <c r="J175" s="12">
         <v>8.2110000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5580,20 +5793,20 @@
       <c r="E176">
         <v>14</v>
       </c>
-      <c r="F176" s="7">
+      <c r="G176" s="7">
         <v>17.93</v>
       </c>
-      <c r="G176" s="6">
+      <c r="H176" s="6">
         <v>31.4</v>
       </c>
-      <c r="H176" s="3">
+      <c r="I176" s="3">
         <v>3.1180500000000002</v>
       </c>
-      <c r="I176" s="12">
+      <c r="J176" s="12">
         <v>8.2070000000000007</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5609,20 +5822,20 @@
       <c r="E177">
         <v>14</v>
       </c>
-      <c r="F177" s="7">
+      <c r="G177" s="7">
         <v>12.27</v>
       </c>
-      <c r="G177" s="6">
+      <c r="H177" s="6">
         <v>31.1</v>
       </c>
-      <c r="H177" s="3">
+      <c r="I177" s="3">
         <v>2.430234</v>
       </c>
-      <c r="I177" s="12">
+      <c r="J177" s="12">
         <v>8.2149999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5638,20 +5851,20 @@
       <c r="E178">
         <v>14</v>
       </c>
-      <c r="F178" s="7">
+      <c r="G178" s="7">
         <v>12.07</v>
       </c>
-      <c r="G178" s="6">
+      <c r="H178" s="6">
         <v>31.1</v>
       </c>
-      <c r="H178" s="3">
+      <c r="I178" s="3">
         <v>1.3608720000000001</v>
       </c>
-      <c r="I178" s="12">
+      <c r="J178" s="12">
         <v>8.19</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5667,20 +5880,20 @@
       <c r="E179">
         <v>14</v>
       </c>
-      <c r="F179" s="7">
+      <c r="G179" s="7">
         <v>5.77</v>
       </c>
-      <c r="G179" s="6">
+      <c r="H179" s="6">
         <v>31</v>
       </c>
-      <c r="H179" s="3">
+      <c r="I179" s="3">
         <v>1.8125279999999999</v>
       </c>
-      <c r="I179" s="12">
+      <c r="J179" s="12">
         <v>8.2680000000000007</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5696,20 +5909,20 @@
       <c r="E180">
         <v>14</v>
       </c>
-      <c r="F180" s="7">
+      <c r="G180" s="7">
         <v>12.13</v>
       </c>
-      <c r="G180" s="6">
+      <c r="H180" s="6">
         <v>31.1</v>
       </c>
-      <c r="H180" s="3">
+      <c r="I180" s="3">
         <v>1.7560710000000002</v>
       </c>
-      <c r="I180" s="12">
+      <c r="J180" s="12">
         <v>8.2089999999999996</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5725,20 +5938,20 @@
       <c r="E181">
         <v>14</v>
       </c>
-      <c r="F181" s="7">
+      <c r="G181" s="7">
         <v>18.03</v>
       </c>
-      <c r="G181" s="6">
+      <c r="H181" s="6">
         <v>31.2</v>
       </c>
-      <c r="H181" s="3">
+      <c r="I181" s="3">
         <v>2.0040390000000001</v>
       </c>
-      <c r="I181" s="12">
+      <c r="J181" s="12">
         <v>8.1029999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5754,20 +5967,23 @@
       <c r="E182">
         <v>15</v>
       </c>
-      <c r="F182" s="8">
+      <c r="F182" t="s">
+        <v>30</v>
+      </c>
+      <c r="G182" s="8">
         <v>17.97</v>
       </c>
-      <c r="G182" s="8">
+      <c r="H182" s="8">
         <v>31.3</v>
       </c>
-      <c r="H182" s="1">
+      <c r="I182" s="1">
         <v>6.7785299999999999</v>
       </c>
-      <c r="I182" s="2">
+      <c r="J182" s="2">
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5783,20 +5999,23 @@
       <c r="E183">
         <v>15</v>
       </c>
-      <c r="F183" s="8">
+      <c r="F183" t="s">
+        <v>30</v>
+      </c>
+      <c r="G183" s="8">
         <v>6.03</v>
       </c>
-      <c r="G183" s="8">
+      <c r="H183" s="8">
         <v>31.1</v>
       </c>
-      <c r="H183" s="1">
+      <c r="I183" s="1">
         <v>1.323234</v>
       </c>
-      <c r="I183" s="2">
+      <c r="J183" s="2">
         <v>8.1950000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5812,20 +6031,23 @@
       <c r="E184">
         <v>15</v>
       </c>
-      <c r="F184" s="8">
+      <c r="F184" t="s">
+        <v>30</v>
+      </c>
+      <c r="G184" s="8">
         <v>11.87</v>
       </c>
-      <c r="G184" s="8">
+      <c r="H184" s="8">
         <v>31.1</v>
       </c>
-      <c r="H184" s="1">
+      <c r="I184" s="1">
         <v>1.7140050000000002</v>
       </c>
-      <c r="I184" s="2">
+      <c r="J184" s="2">
         <v>8.1660000000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5841,20 +6063,23 @@
       <c r="E185">
         <v>15</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F185" t="s">
+        <v>30</v>
+      </c>
+      <c r="G185" s="7">
         <v>18.03</v>
       </c>
-      <c r="G185" s="6">
+      <c r="H185" s="6">
         <v>31.2</v>
       </c>
-      <c r="H185" s="3">
+      <c r="I185" s="3">
         <v>3.0394530000000004</v>
       </c>
-      <c r="I185" s="12">
+      <c r="J185" s="12">
         <v>8.1489999999999991</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5870,20 +6095,23 @@
       <c r="E186">
         <v>15</v>
       </c>
-      <c r="F186" s="7">
+      <c r="F186" t="s">
+        <v>30</v>
+      </c>
+      <c r="G186" s="7">
         <v>5.83</v>
       </c>
-      <c r="G186" s="6">
+      <c r="H186" s="6">
         <v>31</v>
       </c>
-      <c r="H186" s="3">
+      <c r="I186" s="3">
         <v>2.440566</v>
       </c>
-      <c r="I186" s="12">
+      <c r="J186" s="12">
         <v>8.2029999999999994</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5899,20 +6127,23 @@
       <c r="E187">
         <v>15</v>
       </c>
-      <c r="F187" s="7">
+      <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" s="7">
         <v>6.03</v>
       </c>
-      <c r="G187" s="6">
+      <c r="H187" s="6">
         <v>31</v>
       </c>
-      <c r="H187" s="3">
+      <c r="I187" s="3">
         <v>1.611054</v>
       </c>
-      <c r="I187" s="12">
+      <c r="J187" s="12">
         <v>8.2129999999999992</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5928,20 +6159,23 @@
       <c r="E188">
         <v>15</v>
       </c>
-      <c r="F188" s="7">
+      <c r="F188" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" s="7">
         <v>17.93</v>
       </c>
-      <c r="G188" s="6">
+      <c r="H188" s="6">
         <v>31.2</v>
       </c>
-      <c r="H188" s="3">
+      <c r="I188" s="3">
         <v>5.5829700000000004</v>
       </c>
-      <c r="I188" s="12">
+      <c r="J188" s="12">
         <v>8.2010000000000005</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5957,20 +6191,23 @@
       <c r="E189">
         <v>15</v>
       </c>
-      <c r="F189" s="7">
+      <c r="F189" t="s">
+        <v>30</v>
+      </c>
+      <c r="G189" s="7">
         <v>11.97</v>
       </c>
-      <c r="G189" s="6">
+      <c r="H189" s="6">
         <v>31.2</v>
       </c>
-      <c r="H189" s="3">
+      <c r="I189" s="3">
         <v>2.0479500000000002</v>
       </c>
-      <c r="I189" s="12">
+      <c r="J189" s="12">
         <v>8.2119999999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5986,20 +6223,23 @@
       <c r="E190">
         <v>15</v>
       </c>
-      <c r="F190" s="7">
-        <v>12</v>
-      </c>
-      <c r="G190" s="6">
+      <c r="F190" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" s="7">
+        <v>12</v>
+      </c>
+      <c r="H190" s="6">
         <v>31.2</v>
       </c>
-      <c r="H190" s="3">
+      <c r="I190" s="3">
         <v>2.0593890000000004</v>
       </c>
-      <c r="I190" s="12">
+      <c r="J190" s="12">
         <v>8.1969999999999992</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6015,20 +6255,23 @@
       <c r="E191">
         <v>15</v>
       </c>
-      <c r="F191" s="7">
+      <c r="F191" t="s">
+        <v>30</v>
+      </c>
+      <c r="G191" s="7">
         <v>5.93</v>
       </c>
-      <c r="G191" s="6">
+      <c r="H191" s="6">
         <v>31</v>
       </c>
-      <c r="H191" s="3">
+      <c r="I191" s="3">
         <v>1.3343039999999999</v>
       </c>
-      <c r="I191" s="12">
+      <c r="J191" s="12">
         <v>8.2829999999999995</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6044,20 +6287,23 @@
       <c r="E192">
         <v>15</v>
       </c>
-      <c r="F192" s="7">
+      <c r="F192" t="s">
+        <v>30</v>
+      </c>
+      <c r="G192" s="7">
         <v>11.97</v>
       </c>
-      <c r="G192" s="6">
+      <c r="H192" s="6">
         <v>31.1</v>
       </c>
-      <c r="H192" s="3">
+      <c r="I192" s="3">
         <v>2.4833699999999999</v>
       </c>
-      <c r="I192" s="12">
+      <c r="J192" s="12">
         <v>8.2270000000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6073,20 +6319,23 @@
       <c r="E193">
         <v>15</v>
       </c>
-      <c r="F193" s="7">
+      <c r="F193" t="s">
+        <v>30</v>
+      </c>
+      <c r="G193" s="7">
         <v>17.829999999999998</v>
       </c>
-      <c r="G193" s="6">
+      <c r="H193" s="6">
         <v>31.1</v>
       </c>
-      <c r="H193" s="3">
+      <c r="I193" s="3">
         <v>2.9427750000000001</v>
       </c>
-      <c r="I193" s="12">
+      <c r="J193" s="12">
         <v>8.1280000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6102,20 +6351,20 @@
       <c r="E194">
         <v>16</v>
       </c>
-      <c r="F194" s="8">
+      <c r="G194" s="8">
         <v>17.97</v>
       </c>
-      <c r="G194" s="8">
+      <c r="H194" s="8">
         <v>31.1</v>
       </c>
-      <c r="H194" s="1">
+      <c r="I194" s="1">
         <v>9.1475100000000005</v>
       </c>
-      <c r="I194" s="2">
+      <c r="J194" s="2">
         <v>8.234</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6131,20 +6380,20 @@
       <c r="E195">
         <v>16</v>
       </c>
-      <c r="F195" s="8">
+      <c r="G195" s="8">
         <v>5.83</v>
       </c>
-      <c r="G195" s="8">
+      <c r="H195" s="8">
         <v>31</v>
       </c>
-      <c r="H195" s="1">
+      <c r="I195" s="1">
         <v>1.9575450000000001</v>
       </c>
-      <c r="I195" s="2">
+      <c r="J195" s="2">
         <v>8.2170000000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6160,20 +6409,20 @@
       <c r="E196">
         <v>16</v>
       </c>
-      <c r="F196" s="8">
+      <c r="G196" s="8">
         <v>12.1</v>
       </c>
-      <c r="G196" s="8">
+      <c r="H196" s="8">
         <v>31.2</v>
       </c>
-      <c r="H196" s="1">
+      <c r="I196" s="1">
         <v>2.1306060000000002</v>
       </c>
-      <c r="I196" s="2">
+      <c r="J196" s="2">
         <v>8.19</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6189,20 +6438,20 @@
       <c r="E197">
         <v>16</v>
       </c>
-      <c r="F197" s="7">
-        <v>18</v>
-      </c>
-      <c r="G197" s="6">
+      <c r="G197" s="7">
+        <v>18</v>
+      </c>
+      <c r="H197" s="6">
         <v>31</v>
       </c>
-      <c r="H197" s="3">
+      <c r="I197" s="3">
         <v>7.4427300000000001</v>
       </c>
-      <c r="I197" s="12">
+      <c r="J197" s="12">
         <v>8.1829999999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6218,20 +6467,20 @@
       <c r="E198">
         <v>16</v>
       </c>
-      <c r="F198" s="7">
+      <c r="G198" s="7">
         <v>5.8</v>
       </c>
-      <c r="G198" s="6">
+      <c r="H198" s="6">
         <v>31</v>
       </c>
-      <c r="H198" s="3">
+      <c r="I198" s="3">
         <v>1.7752590000000001</v>
       </c>
-      <c r="I198" s="12">
+      <c r="J198" s="12">
         <v>8.2189999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6247,20 +6496,20 @@
       <c r="E199">
         <v>16</v>
       </c>
-      <c r="F199" s="7">
+      <c r="G199" s="7">
         <v>6.07</v>
       </c>
-      <c r="G199" s="6">
+      <c r="H199" s="6">
         <v>31.1</v>
       </c>
-      <c r="H199" s="3">
+      <c r="I199" s="3">
         <v>3.1150980000000001</v>
       </c>
-      <c r="I199" s="12">
+      <c r="J199" s="12">
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6276,20 +6525,20 @@
       <c r="E200">
         <v>16</v>
       </c>
-      <c r="F200" s="7">
+      <c r="G200" s="7">
         <v>18.03</v>
       </c>
-      <c r="G200" s="6">
+      <c r="H200" s="6">
         <v>31.2</v>
       </c>
-      <c r="H200" s="3">
+      <c r="I200" s="3">
         <v>14.19543</v>
       </c>
-      <c r="I200" s="12">
+      <c r="J200" s="12">
         <v>8.2230000000000008</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6305,20 +6554,20 @@
       <c r="E201">
         <v>16</v>
       </c>
-      <c r="F201" s="7">
+      <c r="G201" s="7">
         <v>12.03</v>
       </c>
-      <c r="G201" s="6">
+      <c r="H201" s="6">
         <v>31.2</v>
       </c>
-      <c r="H201" s="3">
+      <c r="I201" s="3">
         <v>2.1520079999999999</v>
       </c>
-      <c r="I201" s="12">
+      <c r="J201" s="12">
         <v>8.2110000000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6334,20 +6583,20 @@
       <c r="E202">
         <v>16</v>
       </c>
-      <c r="F202" s="7">
+      <c r="G202" s="7">
         <v>11.83</v>
       </c>
-      <c r="G202" s="6">
+      <c r="H202" s="6">
         <v>30.9</v>
       </c>
-      <c r="H202" s="3">
+      <c r="I202" s="3">
         <v>12.22128</v>
       </c>
-      <c r="I202" s="12">
+      <c r="J202" s="12">
         <v>8.2210000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6363,20 +6612,20 @@
       <c r="E203">
         <v>16</v>
       </c>
-      <c r="F203" s="7">
+      <c r="G203" s="7">
         <v>5.87</v>
       </c>
-      <c r="G203" s="6">
+      <c r="H203" s="6">
         <v>31.2</v>
       </c>
-      <c r="H203" s="3">
+      <c r="I203" s="3">
         <v>1.4486939999999999</v>
       </c>
-      <c r="I203" s="12">
+      <c r="J203" s="12">
         <v>8.2680000000000007</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6392,20 +6641,20 @@
       <c r="E204">
         <v>16</v>
       </c>
-      <c r="F204" s="7">
-        <v>12</v>
-      </c>
-      <c r="G204" s="6">
+      <c r="G204" s="7">
+        <v>12</v>
+      </c>
+      <c r="H204" s="6">
         <v>31.1</v>
       </c>
-      <c r="H204" s="3">
+      <c r="I204" s="3">
         <v>1.9413090000000002</v>
       </c>
-      <c r="I204" s="12">
+      <c r="J204" s="12">
         <v>8.2360000000000007</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6421,20 +6670,20 @@
       <c r="E205">
         <v>16</v>
       </c>
-      <c r="F205" s="7">
+      <c r="G205" s="7">
         <v>18.100000000000001</v>
       </c>
-      <c r="G205" s="6">
+      <c r="H205" s="6">
         <v>31.2</v>
       </c>
-      <c r="H205" s="3">
+      <c r="I205" s="3">
         <v>5.771160000000001</v>
       </c>
-      <c r="I205" s="12">
+      <c r="J205" s="12">
         <v>8.1280000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6450,20 +6699,20 @@
       <c r="E206">
         <v>17</v>
       </c>
-      <c r="F206" s="8">
+      <c r="G206" s="8">
         <v>17.93</v>
       </c>
-      <c r="G206" s="8">
+      <c r="H206" s="8">
         <v>31.1</v>
       </c>
-      <c r="H206" s="1">
+      <c r="I206" s="1">
         <v>4.0885199999999999</v>
       </c>
-      <c r="I206" s="2">
+      <c r="J206" s="2">
         <v>8.2520000000000007</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6479,20 +6728,20 @@
       <c r="E207">
         <v>17</v>
       </c>
-      <c r="F207" s="8">
+      <c r="G207" s="8">
         <v>6.07</v>
       </c>
-      <c r="G207" s="8">
+      <c r="H207" s="8">
         <v>30.9</v>
       </c>
-      <c r="H207" s="1">
+      <c r="I207" s="1">
         <v>1.2855960000000002</v>
       </c>
-      <c r="I207" s="2">
+      <c r="J207" s="2">
         <v>8.2249999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6508,20 +6757,20 @@
       <c r="E208">
         <v>17</v>
       </c>
-      <c r="F208" s="8">
+      <c r="G208" s="8">
         <v>12.1</v>
       </c>
-      <c r="G208" s="8">
+      <c r="H208" s="8">
         <v>31.1</v>
       </c>
-      <c r="H208" s="1">
+      <c r="I208" s="1">
         <v>3.1545809999999999</v>
       </c>
-      <c r="I208" s="2">
+      <c r="J208" s="2">
         <v>8.2119999999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6537,20 +6786,20 @@
       <c r="E209">
         <v>17</v>
       </c>
-      <c r="F209" s="7">
-        <v>18</v>
-      </c>
-      <c r="G209" s="6">
+      <c r="G209" s="7">
+        <v>18</v>
+      </c>
+      <c r="H209" s="6">
         <v>31.2</v>
       </c>
-      <c r="H209" s="3">
+      <c r="I209" s="3">
         <v>7.5755700000000008</v>
       </c>
-      <c r="I209" s="12">
+      <c r="J209" s="12">
         <v>8.2110000000000003</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6566,20 +6815,20 @@
       <c r="E210">
         <v>17</v>
       </c>
-      <c r="F210" s="7">
+      <c r="G210" s="7">
         <v>5.73</v>
       </c>
-      <c r="G210" s="6">
+      <c r="H210" s="6">
         <v>31.1</v>
       </c>
-      <c r="H210" s="3">
+      <c r="I210" s="3">
         <v>2.2306050000000002</v>
       </c>
-      <c r="I210" s="12">
+      <c r="J210" s="12">
         <v>8.2230000000000008</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6595,20 +6844,20 @@
       <c r="E211">
         <v>17</v>
       </c>
-      <c r="F211" s="7">
+      <c r="G211" s="7">
         <v>6.07</v>
       </c>
-      <c r="G211" s="6">
+      <c r="H211" s="6">
         <v>31</v>
       </c>
-      <c r="H211" s="3">
+      <c r="I211" s="3">
         <v>4.1623200000000002</v>
       </c>
-      <c r="I211" s="12">
+      <c r="J211" s="12">
         <v>8.234</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6624,20 +6873,20 @@
       <c r="E212">
         <v>17</v>
       </c>
-      <c r="F212" s="7">
+      <c r="G212" s="7">
         <v>17.899999999999999</v>
       </c>
-      <c r="G212" s="6">
+      <c r="H212" s="6">
         <v>31.2</v>
       </c>
-      <c r="H212" s="3">
+      <c r="I212" s="3">
         <v>19.339290000000002</v>
       </c>
-      <c r="I212" s="12">
+      <c r="J212" s="12">
         <v>8.282</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6653,20 +6902,20 @@
       <c r="E213">
         <v>17</v>
       </c>
-      <c r="F213" s="7">
+      <c r="G213" s="7">
         <v>12.17</v>
       </c>
-      <c r="G213" s="6">
+      <c r="H213" s="6">
         <v>31.1</v>
       </c>
-      <c r="H213" s="3">
+      <c r="I213" s="3">
         <v>2.6988660000000002</v>
       </c>
-      <c r="I213" s="12">
+      <c r="J213" s="12">
         <v>8.2270000000000003</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6682,20 +6931,20 @@
       <c r="E214">
         <v>17</v>
       </c>
-      <c r="F214" s="7">
+      <c r="G214" s="7">
         <v>12.07</v>
       </c>
-      <c r="G214" s="6">
+      <c r="H214" s="6">
         <v>31.2</v>
       </c>
-      <c r="H214" s="3">
+      <c r="I214" s="3">
         <v>12.78585</v>
       </c>
-      <c r="I214" s="12">
+      <c r="J214" s="12">
         <v>8.2560000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6711,20 +6960,20 @@
       <c r="E215">
         <v>17</v>
       </c>
-      <c r="F215" s="7">
+      <c r="G215" s="7">
         <v>5.83</v>
       </c>
-      <c r="G215" s="6">
+      <c r="H215" s="6">
         <v>31</v>
       </c>
-      <c r="H215" s="3">
+      <c r="I215" s="3">
         <v>1.275633</v>
       </c>
-      <c r="I215" s="12">
+      <c r="J215" s="12">
         <v>8.2919999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6740,20 +6989,20 @@
       <c r="E216">
         <v>17</v>
       </c>
-      <c r="F216" s="7">
+      <c r="G216" s="7">
         <v>12.13</v>
       </c>
-      <c r="G216" s="6">
+      <c r="H216" s="6">
         <v>31.1</v>
       </c>
-      <c r="H216" s="3">
+      <c r="I216" s="3">
         <v>5.1475500000000007</v>
       </c>
-      <c r="I216" s="12">
+      <c r="J216" s="12">
         <v>8.2609999999999992</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6769,20 +7018,20 @@
       <c r="E217">
         <v>17</v>
       </c>
-      <c r="F217" s="7">
-        <v>18</v>
-      </c>
-      <c r="G217" s="6">
+      <c r="G217" s="7">
+        <v>18</v>
+      </c>
+      <c r="H217" s="6">
         <v>31.2</v>
       </c>
-      <c r="H217" s="3">
+      <c r="I217" s="3">
         <v>5.4501299999999997</v>
       </c>
-      <c r="I217" s="12">
+      <c r="J217" s="12">
         <v>8.1549999999999994</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6798,20 +7047,23 @@
       <c r="E218">
         <v>18</v>
       </c>
-      <c r="F218" s="8">
+      <c r="F218" t="s">
+        <v>31</v>
+      </c>
+      <c r="G218" s="8">
         <v>18.03</v>
       </c>
-      <c r="G218" s="8">
+      <c r="H218" s="8">
         <v>31</v>
       </c>
-      <c r="H218" s="1">
+      <c r="I218" s="1">
         <v>7.9408799999999999</v>
       </c>
-      <c r="I218" s="2">
+      <c r="J218" s="2">
         <v>8.2579999999999991</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6827,20 +7079,23 @@
       <c r="E219">
         <v>18</v>
       </c>
-      <c r="F219" s="8">
+      <c r="F219" t="s">
+        <v>31</v>
+      </c>
+      <c r="G219" s="8">
         <v>5.8</v>
       </c>
-      <c r="G219" s="8">
+      <c r="H219" s="8">
         <v>30.9</v>
       </c>
-      <c r="H219" s="1">
+      <c r="I219" s="1">
         <v>1.2660390000000001</v>
       </c>
-      <c r="I219" s="2">
+      <c r="J219" s="2">
         <v>8.2159999999999993</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6856,20 +7111,23 @@
       <c r="E220">
         <v>18</v>
       </c>
-      <c r="F220" s="8">
+      <c r="F220" t="s">
+        <v>31</v>
+      </c>
+      <c r="G220" s="8">
         <v>12.03</v>
       </c>
-      <c r="G220" s="8">
+      <c r="H220" s="8">
         <v>31.2</v>
       </c>
-      <c r="H220" s="1">
+      <c r="I220" s="1">
         <v>2.7911160000000002</v>
       </c>
-      <c r="I220" s="2">
+      <c r="J220" s="2">
         <v>8.2309999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6885,20 +7143,23 @@
       <c r="E221">
         <v>18</v>
       </c>
-      <c r="F221" s="7">
+      <c r="F221" t="s">
+        <v>31</v>
+      </c>
+      <c r="G221" s="7">
         <v>17.93</v>
       </c>
-      <c r="G221" s="6">
+      <c r="H221" s="6">
         <v>31.3</v>
       </c>
-      <c r="H221" s="3">
+      <c r="I221" s="3">
         <v>10.62351</v>
       </c>
-      <c r="I221" s="12">
+      <c r="J221" s="12">
         <v>8.2390000000000008</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6914,20 +7175,23 @@
       <c r="E222">
         <v>18</v>
       </c>
-      <c r="F222" s="7">
+      <c r="F222" t="s">
+        <v>31</v>
+      </c>
+      <c r="G222" s="7">
         <v>5.83</v>
       </c>
-      <c r="G222" s="6">
+      <c r="H222" s="6">
         <v>30.9</v>
       </c>
-      <c r="H222" s="3">
+      <c r="I222" s="3">
         <v>1.775628</v>
       </c>
-      <c r="I222" s="12">
+      <c r="J222" s="12">
         <v>8.2530000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6943,20 +7207,23 @@
       <c r="E223">
         <v>18</v>
       </c>
-      <c r="F223" s="7">
+      <c r="F223" t="s">
+        <v>31</v>
+      </c>
+      <c r="G223" s="7">
         <v>6.07</v>
       </c>
-      <c r="G223" s="6">
+      <c r="H223" s="6">
         <v>31.1</v>
       </c>
-      <c r="H223" s="3">
+      <c r="I223" s="3">
         <v>2.1737790000000001</v>
       </c>
-      <c r="I223" s="12">
+      <c r="J223" s="12">
         <v>8.2490000000000006</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6972,20 +7239,23 @@
       <c r="E224">
         <v>18</v>
       </c>
-      <c r="F224" s="7">
-        <v>18</v>
-      </c>
-      <c r="G224" s="6">
+      <c r="F224" t="s">
+        <v>31</v>
+      </c>
+      <c r="G224" s="7">
+        <v>18</v>
+      </c>
+      <c r="H224" s="6">
         <v>31.1</v>
       </c>
-      <c r="H224" s="3">
+      <c r="I224" s="3">
         <v>24.955469999999998</v>
       </c>
-      <c r="I224" s="12">
+      <c r="J224" s="12">
         <v>8.3360000000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7001,20 +7271,23 @@
       <c r="E225">
         <v>18</v>
       </c>
-      <c r="F225" s="7">
+      <c r="F225" t="s">
+        <v>31</v>
+      </c>
+      <c r="G225" s="7">
         <v>12.1</v>
       </c>
-      <c r="G225" s="6">
+      <c r="H225" s="6">
         <v>31.1</v>
       </c>
-      <c r="H225" s="3">
+      <c r="I225" s="3">
         <v>3.4483050000000004</v>
       </c>
-      <c r="I225" s="12">
+      <c r="J225" s="12">
         <v>8.2390000000000008</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7030,20 +7303,23 @@
       <c r="E226">
         <v>18</v>
       </c>
-      <c r="F226" s="7">
+      <c r="F226" t="s">
+        <v>31</v>
+      </c>
+      <c r="G226" s="7">
         <v>12.1</v>
       </c>
-      <c r="G226" s="6">
+      <c r="H226" s="6">
         <v>31.1</v>
       </c>
-      <c r="H226" s="3">
+      <c r="I226" s="3">
         <v>16.09947</v>
       </c>
-      <c r="I226" s="12">
+      <c r="J226" s="12">
         <v>8.3079999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7059,20 +7335,23 @@
       <c r="E227">
         <v>18</v>
       </c>
-      <c r="F227" s="7">
+      <c r="F227" t="s">
+        <v>31</v>
+      </c>
+      <c r="G227" s="7">
         <v>5.83</v>
       </c>
-      <c r="G227" s="6">
+      <c r="H227" s="6">
         <v>31</v>
       </c>
-      <c r="H227" s="3">
+      <c r="I227" s="3">
         <v>1.9413090000000002</v>
       </c>
-      <c r="I227" s="12">
+      <c r="J227" s="12">
         <v>8.2989999999999995</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7088,20 +7367,23 @@
       <c r="E228">
         <v>18</v>
       </c>
-      <c r="F228" s="7">
+      <c r="F228" t="s">
+        <v>31</v>
+      </c>
+      <c r="G228" s="7">
         <v>12.17</v>
       </c>
-      <c r="G228" s="6">
+      <c r="H228" s="6">
         <v>31.1</v>
       </c>
-      <c r="H228" s="3">
+      <c r="I228" s="3">
         <v>10.815390000000001</v>
       </c>
-      <c r="I228" s="12">
+      <c r="J228" s="12">
         <v>8.3010000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7117,20 +7399,23 @@
       <c r="E229">
         <v>18</v>
       </c>
-      <c r="F229" s="7">
-        <v>18</v>
-      </c>
-      <c r="G229" s="6">
+      <c r="F229" t="s">
+        <v>31</v>
+      </c>
+      <c r="G229" s="7">
+        <v>18</v>
+      </c>
+      <c r="H229" s="6">
         <v>31.2</v>
       </c>
-      <c r="H229" s="3">
+      <c r="I229" s="3">
         <v>23.759910000000001</v>
       </c>
-      <c r="I229" s="12">
+      <c r="J229" s="12">
         <v>8.1859999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7146,20 +7431,20 @@
       <c r="E230">
         <v>19</v>
       </c>
-      <c r="F230" s="2">
+      <c r="G230" s="2">
         <v>18.07</v>
       </c>
-      <c r="G230" s="1">
+      <c r="H230" s="1">
         <v>31.3</v>
       </c>
-      <c r="H230" s="5">
+      <c r="I230" s="5">
         <v>6.1696799999999996</v>
       </c>
-      <c r="I230" s="2">
+      <c r="J230" s="2">
         <v>8.282</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7175,20 +7460,20 @@
       <c r="E231">
         <v>19</v>
       </c>
-      <c r="F231" s="2">
+      <c r="G231" s="2">
         <v>5.77</v>
       </c>
-      <c r="G231" s="8">
+      <c r="H231" s="8">
         <v>30.9</v>
       </c>
-      <c r="H231" s="1">
+      <c r="I231" s="1">
         <v>1.6309800000000001</v>
       </c>
-      <c r="I231" s="2">
+      <c r="J231" s="2">
         <v>8.2409999999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7204,20 +7489,20 @@
       <c r="E232">
         <v>19</v>
       </c>
-      <c r="F232" s="2">
+      <c r="G232" s="2">
         <v>12.17</v>
       </c>
-      <c r="G232" s="1">
+      <c r="H232" s="1">
         <v>31.2</v>
       </c>
-      <c r="H232" s="1">
+      <c r="I232" s="1">
         <v>6.1254</v>
       </c>
-      <c r="I232" s="4">
+      <c r="J232" s="4">
         <v>8.2639999999999993</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7233,20 +7518,20 @@
       <c r="E233">
         <v>19</v>
       </c>
-      <c r="F233" s="4">
+      <c r="G233" s="4">
         <v>18.170000000000002</v>
       </c>
-      <c r="G233" s="3">
+      <c r="H233" s="3">
         <v>31.3</v>
       </c>
-      <c r="H233" s="3">
+      <c r="I233" s="3">
         <v>7.4648700000000012</v>
       </c>
-      <c r="I233" s="12">
+      <c r="J233" s="12">
         <v>8.2620000000000005</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7262,20 +7547,20 @@
       <c r="E234">
         <v>19</v>
       </c>
-      <c r="F234" s="4">
+      <c r="G234" s="4">
         <v>5.8</v>
       </c>
-      <c r="G234" s="6">
+      <c r="H234" s="6">
         <v>31</v>
       </c>
-      <c r="H234" s="3">
+      <c r="I234" s="3">
         <v>1.967508</v>
       </c>
-      <c r="I234" s="12">
+      <c r="J234" s="12">
         <v>8.2579999999999991</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7291,20 +7576,20 @@
       <c r="E235">
         <v>19</v>
       </c>
-      <c r="F235" s="4">
+      <c r="G235" s="4">
         <v>6.06</v>
       </c>
-      <c r="G235" s="6">
+      <c r="H235" s="6">
         <v>31.1</v>
       </c>
-      <c r="H235" s="3">
+      <c r="I235" s="3">
         <v>1.9948140000000003</v>
       </c>
-      <c r="I235" s="12">
+      <c r="J235" s="12">
         <v>8.2609999999999992</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7320,20 +7605,20 @@
       <c r="E236">
         <v>19</v>
       </c>
-      <c r="F236" s="4">
+      <c r="G236" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="G236" s="3">
+      <c r="H236" s="3">
         <v>31.3</v>
       </c>
-      <c r="H236" s="3">
+      <c r="I236" s="3">
         <v>26.568000000000001</v>
       </c>
-      <c r="I236" s="12">
+      <c r="J236" s="12">
         <v>8.3919999999999995</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7349,20 +7634,20 @@
       <c r="E237">
         <v>19</v>
       </c>
-      <c r="F237" s="4">
+      <c r="G237" s="4">
         <v>12.07</v>
       </c>
-      <c r="G237" s="3">
+      <c r="H237" s="3">
         <v>31.2</v>
       </c>
-      <c r="H237" s="3">
+      <c r="I237" s="3">
         <v>3.6132480000000005</v>
       </c>
-      <c r="I237" s="12">
+      <c r="J237" s="12">
         <v>8.2579999999999991</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7378,20 +7663,20 @@
       <c r="E238">
         <v>19</v>
       </c>
-      <c r="F238" s="4">
+      <c r="G238" s="4">
         <v>11.93</v>
       </c>
-      <c r="G238" s="3">
+      <c r="H238" s="3">
         <v>31</v>
       </c>
-      <c r="H238" s="3">
+      <c r="I238" s="3">
         <v>10.291409999999999</v>
       </c>
-      <c r="I238" s="12">
+      <c r="J238" s="12">
         <v>8.3580000000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7407,20 +7692,20 @@
       <c r="E239">
         <v>19</v>
       </c>
-      <c r="F239" s="4">
+      <c r="G239" s="4">
         <v>5.87</v>
       </c>
-      <c r="G239" s="6">
+      <c r="H239" s="6">
         <v>31.2</v>
       </c>
-      <c r="H239" s="3">
+      <c r="I239" s="3">
         <v>1.8261810000000003</v>
       </c>
-      <c r="I239" s="12">
+      <c r="J239" s="12">
         <v>8.3160000000000007</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7436,20 +7721,20 @@
       <c r="E240">
         <v>19</v>
       </c>
-      <c r="F240" s="4">
-        <v>12</v>
-      </c>
-      <c r="G240" s="3">
+      <c r="G240" s="4">
+        <v>12</v>
+      </c>
+      <c r="H240" s="3">
         <v>31.2</v>
       </c>
-      <c r="H240" s="3">
+      <c r="I240" s="3">
         <v>14.35041</v>
       </c>
-      <c r="I240" s="12">
+      <c r="J240" s="12">
         <v>8.3450000000000006</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7465,20 +7750,20 @@
       <c r="E241">
         <v>19</v>
       </c>
-      <c r="F241" s="4">
+      <c r="G241" s="4">
         <v>18.13</v>
       </c>
-      <c r="G241" s="3">
+      <c r="H241" s="3">
         <v>31</v>
       </c>
-      <c r="H241" s="3">
+      <c r="I241" s="3">
         <v>10.501740000000002</v>
       </c>
-      <c r="I241" s="12">
+      <c r="J241" s="12">
         <v>8.2270000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7494,20 +7779,20 @@
       <c r="E242">
         <v>20</v>
       </c>
-      <c r="F242" s="2">
+      <c r="G242" s="2">
         <v>18.170000000000002</v>
       </c>
-      <c r="G242" s="1">
+      <c r="H242" s="1">
         <v>31.2</v>
       </c>
-      <c r="H242" s="1">
+      <c r="I242" s="1">
         <v>7.1364600000000005</v>
       </c>
-      <c r="I242" s="1">
+      <c r="J242" s="1">
         <v>8.2910000000000004</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7523,20 +7808,20 @@
       <c r="E243">
         <v>20</v>
       </c>
-      <c r="F243" s="2">
+      <c r="G243" s="2">
         <v>5.9</v>
       </c>
-      <c r="G243" s="8">
+      <c r="H243" s="8">
         <v>31</v>
       </c>
-      <c r="H243" s="1">
+      <c r="I243" s="1">
         <v>2.4748829999999997</v>
       </c>
-      <c r="I243" s="8">
+      <c r="J243" s="8">
         <v>8.24</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7552,20 +7837,20 @@
       <c r="E244">
         <v>20</v>
       </c>
-      <c r="F244" s="2">
+      <c r="G244" s="2">
         <v>12.1</v>
       </c>
-      <c r="G244" s="1">
+      <c r="H244" s="1">
         <v>31.2</v>
       </c>
-      <c r="H244" s="1">
+      <c r="I244" s="1">
         <v>4.5756000000000006</v>
       </c>
-      <c r="I244" s="1">
+      <c r="J244" s="1">
         <v>8.2789999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7581,20 +7866,20 @@
       <c r="E245">
         <v>20</v>
       </c>
-      <c r="F245" s="2">
+      <c r="G245" s="2">
         <v>18.13</v>
       </c>
-      <c r="G245" s="1">
+      <c r="H245" s="1">
         <v>31.3</v>
       </c>
-      <c r="H245" s="1">
+      <c r="I245" s="1">
         <v>5.771160000000001</v>
       </c>
-      <c r="I245" s="1">
+      <c r="J245" s="1">
         <v>8.2650000000000006</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7610,20 +7895,20 @@
       <c r="E246">
         <v>20</v>
       </c>
-      <c r="F246" s="2">
+      <c r="G246" s="2">
         <v>5.73</v>
       </c>
-      <c r="G246" s="6">
+      <c r="H246" s="6">
         <v>31</v>
       </c>
-      <c r="H246" s="1">
+      <c r="I246" s="1">
         <v>2.530233</v>
       </c>
-      <c r="I246" s="12">
+      <c r="J246" s="12">
         <v>8.2739999999999991</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7639,20 +7924,20 @@
       <c r="E247">
         <v>20</v>
       </c>
-      <c r="F247" s="2">
+      <c r="G247" s="2">
         <v>6.07</v>
       </c>
-      <c r="G247" s="6">
+      <c r="H247" s="6">
         <v>31.1</v>
       </c>
-      <c r="H247" s="1">
+      <c r="I247" s="1">
         <v>3.8818800000000002</v>
       </c>
-      <c r="I247" s="12">
+      <c r="J247" s="12">
         <v>8.2829999999999995</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7668,20 +7953,20 @@
       <c r="E248">
         <v>20</v>
       </c>
-      <c r="F248" s="2">
+      <c r="G248" s="2">
         <v>18.07</v>
       </c>
-      <c r="G248" s="1">
+      <c r="H248" s="1">
         <v>31.2</v>
       </c>
-      <c r="H248" s="1">
+      <c r="I248" s="1">
         <v>13.328280000000001</v>
       </c>
-      <c r="I248" s="1">
+      <c r="J248" s="1">
         <v>8.484</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7697,20 +7982,20 @@
       <c r="E249">
         <v>20</v>
       </c>
-      <c r="F249" s="2">
+      <c r="G249" s="2">
         <v>11.97</v>
       </c>
-      <c r="G249" s="1">
+      <c r="H249" s="1">
         <v>31.1</v>
       </c>
-      <c r="H249" s="1">
+      <c r="I249" s="1">
         <v>3.7601100000000005</v>
       </c>
-      <c r="I249" s="2">
+      <c r="J249" s="2">
         <v>8.2560000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7726,20 +8011,20 @@
       <c r="E250">
         <v>20</v>
       </c>
-      <c r="F250" s="2">
+      <c r="G250" s="2">
         <v>11.9</v>
       </c>
-      <c r="G250" s="1">
+      <c r="H250" s="1">
         <v>31.1</v>
       </c>
-      <c r="H250" s="1">
+      <c r="I250" s="1">
         <v>18.088380000000001</v>
       </c>
-      <c r="I250" s="2">
+      <c r="J250" s="2">
         <v>8.3780000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7755,20 +8040,20 @@
       <c r="E251">
         <v>20</v>
       </c>
-      <c r="F251" s="2">
+      <c r="G251" s="2">
         <v>5.83</v>
       </c>
-      <c r="G251" s="6">
+      <c r="H251" s="6">
         <v>30.9</v>
       </c>
-      <c r="H251" s="1">
+      <c r="I251" s="1">
         <v>1.1660400000000002</v>
       </c>
-      <c r="I251" s="2">
+      <c r="J251" s="2">
         <v>8.3190000000000008</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7784,20 +8069,20 @@
       <c r="E252">
         <v>20</v>
       </c>
-      <c r="F252" s="2">
-        <v>12</v>
-      </c>
-      <c r="G252" s="1">
+      <c r="G252" s="2">
+        <v>12</v>
+      </c>
+      <c r="H252" s="1">
         <v>31.2</v>
       </c>
-      <c r="H252" s="1">
+      <c r="I252" s="1">
         <v>12.31353</v>
       </c>
-      <c r="I252" s="2">
+      <c r="J252" s="2">
         <v>8.3740000000000006</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7813,20 +8098,20 @@
       <c r="E253">
         <v>20</v>
       </c>
-      <c r="F253" s="2">
+      <c r="G253" s="2">
         <v>18.03</v>
       </c>
-      <c r="G253" s="1">
+      <c r="H253" s="1">
         <v>31.3</v>
       </c>
-      <c r="H253" s="1">
+      <c r="I253" s="1">
         <v>10.058940000000002</v>
       </c>
-      <c r="I253" s="2">
+      <c r="J253" s="2">
         <v>8.2449999999999992</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7842,20 +8127,23 @@
       <c r="E254">
         <v>21</v>
       </c>
-      <c r="F254" s="2">
+      <c r="F254" t="s">
+        <v>32</v>
+      </c>
+      <c r="G254" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="G254" s="1">
+      <c r="H254" s="1">
         <v>31.1</v>
       </c>
-      <c r="H254" s="1">
+      <c r="I254" s="1">
         <v>16.424190000000003</v>
       </c>
-      <c r="I254" s="2">
+      <c r="J254" s="2">
         <v>8.2929999999999993</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7871,20 +8159,23 @@
       <c r="E255">
         <v>21</v>
       </c>
-      <c r="F255" s="2">
+      <c r="F255" t="s">
+        <v>32</v>
+      </c>
+      <c r="G255" s="2">
         <v>5.97</v>
       </c>
-      <c r="G255" s="8">
+      <c r="H255" s="8">
         <v>31</v>
       </c>
-      <c r="H255" s="1">
+      <c r="I255" s="1">
         <v>1.990386</v>
       </c>
-      <c r="I255" s="2">
+      <c r="J255" s="2">
         <v>8.2370000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7900,20 +8191,23 @@
       <c r="E256">
         <v>21</v>
       </c>
-      <c r="F256" s="2">
+      <c r="F256" t="s">
+        <v>32</v>
+      </c>
+      <c r="G256" s="2">
         <v>12.1</v>
       </c>
-      <c r="G256" s="1">
+      <c r="H256" s="1">
         <v>31.2</v>
       </c>
-      <c r="H256" s="1">
+      <c r="I256" s="1">
         <v>5.9778000000000002</v>
       </c>
-      <c r="I256" s="2">
+      <c r="J256" s="2">
         <v>8.3010000000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7929,20 +8223,23 @@
       <c r="E257">
         <v>21</v>
       </c>
-      <c r="F257" s="2">
+      <c r="F257" t="s">
+        <v>32</v>
+      </c>
+      <c r="G257" s="2">
         <v>17.93</v>
       </c>
-      <c r="G257" s="1">
+      <c r="H257" s="1">
         <v>31.3</v>
       </c>
-      <c r="H257" s="1">
+      <c r="I257" s="1">
         <v>3.8080800000000004</v>
       </c>
-      <c r="I257" s="2">
+      <c r="J257" s="2">
         <v>8.2390000000000008</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7958,20 +8255,23 @@
       <c r="E258">
         <v>21</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258" t="s">
+        <v>32</v>
+      </c>
+      <c r="G258" s="2">
         <v>5.73</v>
       </c>
-      <c r="G258" s="6">
+      <c r="H258" s="6">
         <v>30.9</v>
       </c>
-      <c r="H258" s="1">
+      <c r="I258" s="1">
         <v>3.3265350000000002</v>
       </c>
-      <c r="I258" s="2">
+      <c r="J258" s="2">
         <v>8.2230000000000008</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7987,20 +8287,23 @@
       <c r="E259">
         <v>21</v>
       </c>
-      <c r="F259" s="2">
+      <c r="F259" t="s">
+        <v>32</v>
+      </c>
+      <c r="G259" s="2">
         <v>6.03</v>
       </c>
-      <c r="G259" s="6">
+      <c r="H259" s="6">
         <v>31.1</v>
       </c>
-      <c r="H259" s="1">
+      <c r="I259" s="1">
         <v>1.954593</v>
       </c>
-      <c r="I259" s="2">
+      <c r="J259" s="2">
         <v>8.2989999999999995</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -8016,20 +8319,23 @@
       <c r="E260">
         <v>21</v>
       </c>
-      <c r="F260" s="2">
+      <c r="F260" t="s">
+        <v>32</v>
+      </c>
+      <c r="G260" s="2">
         <v>17.87</v>
       </c>
-      <c r="G260" s="1">
+      <c r="H260" s="1">
         <v>31.3</v>
       </c>
-      <c r="H260" s="1">
+      <c r="I260" s="1">
         <v>23.686109999999999</v>
       </c>
-      <c r="I260" s="2">
+      <c r="J260" s="2">
         <v>8.49</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -8045,20 +8351,23 @@
       <c r="E261">
         <v>21</v>
       </c>
-      <c r="F261" s="2">
+      <c r="F261" t="s">
+        <v>32</v>
+      </c>
+      <c r="G261" s="2">
         <v>12.23</v>
       </c>
-      <c r="G261" s="1">
+      <c r="H261" s="1">
         <v>31.1</v>
       </c>
-      <c r="H261" s="1">
+      <c r="I261" s="1">
         <v>3.8154600000000003</v>
       </c>
-      <c r="I261" s="2">
+      <c r="J261" s="2">
         <v>8.2739999999999991</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -8074,20 +8383,23 @@
       <c r="E262">
         <v>21</v>
       </c>
-      <c r="F262" s="2">
+      <c r="F262" t="s">
+        <v>32</v>
+      </c>
+      <c r="G262" s="2">
         <v>11.83</v>
       </c>
-      <c r="G262" s="1">
+      <c r="H262" s="1">
         <v>31.2</v>
       </c>
-      <c r="H262" s="1">
+      <c r="I262" s="1">
         <v>22.461030000000004</v>
       </c>
-      <c r="I262" s="2">
+      <c r="J262" s="2">
         <v>8.4280000000000008</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -8103,20 +8415,23 @@
       <c r="E263">
         <v>21</v>
       </c>
-      <c r="F263" s="2">
+      <c r="F263" t="s">
+        <v>32</v>
+      </c>
+      <c r="G263" s="2">
         <v>5.8</v>
       </c>
-      <c r="G263" s="6">
+      <c r="H263" s="6">
         <v>31.1</v>
       </c>
-      <c r="H263" s="1">
+      <c r="I263" s="1">
         <v>1.3213890000000001</v>
       </c>
-      <c r="I263" s="2">
+      <c r="J263" s="2">
         <v>8.327</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -8132,20 +8447,23 @@
       <c r="E264">
         <v>21</v>
       </c>
-      <c r="F264" s="2">
+      <c r="F264" t="s">
+        <v>32</v>
+      </c>
+      <c r="G264" s="2">
         <v>12.03</v>
       </c>
-      <c r="G264" s="1">
+      <c r="H264" s="1">
         <v>31.2</v>
       </c>
-      <c r="H264" s="1">
+      <c r="I264" s="1">
         <v>31.41666</v>
       </c>
-      <c r="I264" s="2">
+      <c r="J264" s="2">
         <v>8.42</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -8161,20 +8479,23 @@
       <c r="E265">
         <v>21</v>
       </c>
-      <c r="F265" s="2">
-        <v>18</v>
-      </c>
-      <c r="G265" s="1">
+      <c r="F265" t="s">
+        <v>32</v>
+      </c>
+      <c r="G265" s="2">
+        <v>18</v>
+      </c>
+      <c r="H265" s="1">
         <v>31.2</v>
       </c>
-      <c r="H265" s="1">
+      <c r="I265" s="1">
         <v>9.2028600000000012</v>
       </c>
-      <c r="I265" s="2">
+      <c r="J265" s="2">
         <v>8.2720000000000002</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -8190,20 +8511,20 @@
       <c r="E266">
         <v>22</v>
       </c>
-      <c r="F266" s="2">
+      <c r="G266" s="2">
         <v>17.97</v>
       </c>
-      <c r="G266" s="1">
+      <c r="H266" s="1">
         <v>31.2</v>
       </c>
-      <c r="H266" s="1">
+      <c r="I266" s="1">
         <v>5.8818600000000005</v>
       </c>
-      <c r="I266" s="2">
+      <c r="J266" s="2">
         <v>8.3309999999999995</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -8219,20 +8540,20 @@
       <c r="E267">
         <v>22</v>
       </c>
-      <c r="F267" s="2">
+      <c r="G267" s="2">
         <v>5.9</v>
       </c>
-      <c r="G267" s="8">
+      <c r="H267" s="8">
         <v>31.1</v>
       </c>
-      <c r="H267" s="1">
+      <c r="I267" s="1">
         <v>1.6678800000000003</v>
       </c>
-      <c r="I267" s="2">
+      <c r="J267" s="2">
         <v>8.26</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -8248,20 +8569,20 @@
       <c r="E268">
         <v>22</v>
       </c>
-      <c r="F268" s="2">
+      <c r="G268" s="2">
         <v>12.07</v>
       </c>
-      <c r="G268" s="1">
+      <c r="H268" s="1">
         <v>31.2</v>
       </c>
-      <c r="H268" s="1">
+      <c r="I268" s="1">
         <v>6.4279799999999998</v>
       </c>
-      <c r="I268" s="2">
+      <c r="J268" s="2">
         <v>8.3179999999999996</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -8277,20 +8598,20 @@
       <c r="E269">
         <v>22</v>
       </c>
-      <c r="F269" s="2">
+      <c r="G269" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="G269" s="1">
+      <c r="H269" s="1">
         <v>31.3</v>
       </c>
-      <c r="H269" s="1">
+      <c r="I269" s="1">
         <v>3.6224730000000003</v>
       </c>
-      <c r="I269" s="2">
+      <c r="J269" s="2">
         <v>8.2739999999999991</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -8306,20 +8627,20 @@
       <c r="E270">
         <v>22</v>
       </c>
-      <c r="F270" s="2">
+      <c r="G270" s="2">
         <v>5.7</v>
       </c>
-      <c r="G270" s="6">
+      <c r="H270" s="6">
         <v>31</v>
       </c>
-      <c r="H270" s="1">
+      <c r="I270" s="1">
         <v>3.76749</v>
       </c>
-      <c r="I270" s="2">
+      <c r="J270" s="2">
         <v>8.3130000000000006</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -8335,20 +8656,20 @@
       <c r="E271">
         <v>22</v>
       </c>
-      <c r="F271" s="2">
+      <c r="G271" s="2">
         <v>6.2</v>
       </c>
-      <c r="G271" s="6">
+      <c r="H271" s="6">
         <v>31</v>
       </c>
-      <c r="H271" s="1">
+      <c r="I271" s="1">
         <v>2.8099350000000003</v>
       </c>
-      <c r="I271" s="2">
+      <c r="J271" s="2">
         <v>8.3170000000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -8364,20 +8685,20 @@
       <c r="E272">
         <v>22</v>
       </c>
-      <c r="F272" s="2">
-        <v>18</v>
-      </c>
-      <c r="G272" s="1">
+      <c r="G272" s="2">
+        <v>18</v>
+      </c>
+      <c r="H272" s="1">
         <v>31.3</v>
       </c>
-      <c r="H272" s="1">
+      <c r="I272" s="1">
         <v>10.413180000000001</v>
       </c>
-      <c r="I272" s="2">
+      <c r="J272" s="2">
         <v>8.5340000000000007</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -8393,20 +8714,20 @@
       <c r="E273">
         <v>22</v>
       </c>
-      <c r="F273" s="2">
+      <c r="G273" s="2">
         <v>12.13</v>
       </c>
-      <c r="G273" s="1">
+      <c r="H273" s="1">
         <v>31.1</v>
       </c>
-      <c r="H273" s="1">
+      <c r="I273" s="1">
         <v>3.7896300000000003</v>
       </c>
-      <c r="I273" s="2">
+      <c r="J273" s="2">
         <v>8.2780000000000005</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -8422,20 +8743,20 @@
       <c r="E274">
         <v>22</v>
       </c>
-      <c r="F274" s="2">
+      <c r="G274" s="2">
         <v>12.1</v>
       </c>
-      <c r="G274" s="1">
+      <c r="H274" s="1">
         <v>31.3</v>
       </c>
-      <c r="H274" s="1">
+      <c r="I274" s="1">
         <v>25.210080000000005</v>
       </c>
-      <c r="I274" s="2">
+      <c r="J274" s="2">
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -8451,20 +8772,20 @@
       <c r="E275">
         <v>22</v>
       </c>
-      <c r="F275" s="2">
+      <c r="G275" s="2">
         <v>5.83</v>
       </c>
-      <c r="G275" s="6">
+      <c r="H275" s="6">
         <v>30.9</v>
       </c>
-      <c r="H275" s="1">
+      <c r="I275" s="1">
         <v>2.8634399999999998</v>
       </c>
-      <c r="I275" s="2">
+      <c r="J275" s="2">
         <v>8.3510000000000009</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -8480,20 +8801,20 @@
       <c r="E276">
         <v>22</v>
       </c>
-      <c r="F276" s="2">
+      <c r="G276" s="2">
         <v>12.07</v>
       </c>
-      <c r="G276" s="1">
+      <c r="H276" s="1">
         <v>31.5</v>
       </c>
-      <c r="H276" s="1">
+      <c r="I276" s="1">
         <v>14.73786</v>
       </c>
-      <c r="I276" s="2">
+      <c r="J276" s="2">
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -8509,20 +8830,20 @@
       <c r="E277">
         <v>22</v>
       </c>
-      <c r="F277" s="2">
+      <c r="G277" s="2">
         <v>17.87</v>
       </c>
-      <c r="G277" s="1">
+      <c r="H277" s="1">
         <v>31.5</v>
       </c>
-      <c r="H277" s="1">
+      <c r="I277" s="1">
         <v>12.184380000000001</v>
       </c>
-      <c r="I277" s="2">
+      <c r="J277" s="2">
         <v>8.2949999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -8538,20 +8859,20 @@
       <c r="E278">
         <v>23</v>
       </c>
-      <c r="F278" s="2">
+      <c r="G278" s="2">
         <v>17.93</v>
       </c>
-      <c r="G278" s="1">
+      <c r="H278" s="1">
         <v>31.1</v>
       </c>
-      <c r="H278" s="1">
+      <c r="I278" s="1">
         <v>13.162230000000001</v>
       </c>
-      <c r="I278" s="2">
+      <c r="J278" s="2">
         <v>8.3539999999999992</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -8567,20 +8888,20 @@
       <c r="E279">
         <v>23</v>
       </c>
-      <c r="F279" s="2">
+      <c r="G279" s="2">
         <v>5.8</v>
       </c>
-      <c r="G279" s="8">
+      <c r="H279" s="8">
         <v>30.9</v>
       </c>
-      <c r="H279" s="1">
+      <c r="I279" s="1">
         <v>4.0184100000000003</v>
       </c>
-      <c r="I279" s="2">
+      <c r="J279" s="2">
         <v>8.2829999999999995</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -8596,20 +8917,20 @@
       <c r="E280">
         <v>23</v>
       </c>
-      <c r="F280" s="2">
-        <v>12</v>
-      </c>
-      <c r="G280" s="1">
+      <c r="G280" s="2">
+        <v>12</v>
+      </c>
+      <c r="H280" s="1">
         <v>31.2</v>
       </c>
-      <c r="H280" s="1">
+      <c r="I280" s="1">
         <v>5.7084299999999999</v>
       </c>
-      <c r="I280" s="2">
+      <c r="J280" s="2">
         <v>8.3339999999999996</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -8625,20 +8946,20 @@
       <c r="E281">
         <v>23</v>
       </c>
-      <c r="F281" s="2">
+      <c r="G281" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="G281" s="1">
+      <c r="H281" s="1">
         <v>31.3</v>
       </c>
-      <c r="H281" s="1">
+      <c r="I281" s="1">
         <v>4.0405500000000005</v>
       </c>
-      <c r="I281" s="2">
+      <c r="J281" s="2">
         <v>8.2880000000000003</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -8654,20 +8975,20 @@
       <c r="E282">
         <v>23</v>
       </c>
-      <c r="F282" s="2">
+      <c r="G282" s="2">
         <v>5.73</v>
       </c>
-      <c r="G282" s="6">
+      <c r="H282" s="6">
         <v>31</v>
       </c>
-      <c r="H282" s="1">
+      <c r="I282" s="1">
         <v>2.7483120000000003</v>
       </c>
-      <c r="I282" s="2">
+      <c r="J282" s="2">
         <v>8.3360000000000003</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -8683,20 +9004,20 @@
       <c r="E283">
         <v>23</v>
       </c>
-      <c r="F283" s="2">
+      <c r="G283" s="2">
         <v>6.07</v>
       </c>
-      <c r="G283" s="6">
+      <c r="H283" s="6">
         <v>31</v>
       </c>
-      <c r="H283" s="1">
+      <c r="I283" s="1">
         <v>3.5099280000000004</v>
       </c>
-      <c r="I283" s="2">
+      <c r="J283" s="2">
         <v>8.3580000000000005</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -8712,20 +9033,20 @@
       <c r="E284">
         <v>23</v>
       </c>
-      <c r="F284" s="2">
-        <v>18</v>
-      </c>
-      <c r="G284" s="1">
+      <c r="G284" s="2">
+        <v>18</v>
+      </c>
+      <c r="H284" s="1">
         <v>31.3</v>
       </c>
-      <c r="H284" s="1">
+      <c r="I284" s="1">
         <v>4.4870400000000004</v>
       </c>
-      <c r="I284" s="2">
+      <c r="J284" s="2">
         <v>8.5820000000000007</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -8741,20 +9062,20 @@
       <c r="E285">
         <v>23</v>
       </c>
-      <c r="F285" s="2">
+      <c r="G285" s="2">
         <v>12.13</v>
       </c>
-      <c r="G285" s="1">
+      <c r="H285" s="1">
         <v>31.1</v>
       </c>
-      <c r="H285" s="1">
+      <c r="I285" s="1">
         <v>4.3136100000000006</v>
       </c>
-      <c r="I285" s="2">
+      <c r="J285" s="2">
         <v>8.2959999999999994</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -8770,20 +9091,20 @@
       <c r="E286">
         <v>23</v>
       </c>
-      <c r="F286" s="2">
+      <c r="G286" s="2">
         <v>12.1</v>
       </c>
-      <c r="G286" s="1">
+      <c r="H286" s="1">
         <v>31.2</v>
       </c>
-      <c r="H286" s="1">
+      <c r="I286" s="1">
         <v>15.796890000000001</v>
       </c>
-      <c r="I286" s="2">
+      <c r="J286" s="2">
         <v>8.5020000000000007</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -8799,20 +9120,20 @@
       <c r="E287">
         <v>23</v>
       </c>
-      <c r="F287" s="2">
+      <c r="G287" s="2">
         <v>5.8</v>
       </c>
-      <c r="G287" s="6">
+      <c r="H287" s="6">
         <v>31.1</v>
       </c>
-      <c r="H287" s="1">
+      <c r="I287" s="1">
         <v>3.3040260000000004</v>
       </c>
-      <c r="I287" s="2">
+      <c r="J287" s="2">
         <v>8.3689999999999998</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -8828,20 +9149,20 @@
       <c r="E288">
         <v>23</v>
       </c>
-      <c r="F288" s="2">
+      <c r="G288" s="2">
         <v>12.13</v>
       </c>
-      <c r="G288" s="1">
+      <c r="H288" s="1">
         <v>31.1</v>
       </c>
-      <c r="H288" s="1">
+      <c r="I288" s="1">
         <v>9.7305299999999999</v>
       </c>
-      <c r="I288" s="2">
+      <c r="J288" s="2">
         <v>8.4920000000000009</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -8857,20 +9178,20 @@
       <c r="E289">
         <v>23</v>
       </c>
-      <c r="F289" s="2">
+      <c r="G289" s="2">
         <v>18.03</v>
       </c>
-      <c r="G289" s="1">
+      <c r="H289" s="1">
         <v>31.1</v>
       </c>
-      <c r="H289" s="1">
+      <c r="I289" s="1">
         <v>3.8007000000000004</v>
       </c>
-      <c r="I289" s="2">
+      <c r="J289" s="2">
         <v>8.3130000000000006</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -8886,20 +9207,23 @@
       <c r="E290">
         <v>24</v>
       </c>
-      <c r="F290" s="2">
+      <c r="F290" t="s">
+        <v>33</v>
+      </c>
+      <c r="G290" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="G290" s="1">
+      <c r="H290" s="1">
         <v>31.4</v>
       </c>
-      <c r="H290" s="1">
+      <c r="I290" s="1">
         <v>13.804290000000002</v>
       </c>
-      <c r="I290" s="2">
+      <c r="J290" s="2">
         <v>8.3740000000000006</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -8915,20 +9239,23 @@
       <c r="E291">
         <v>24</v>
       </c>
-      <c r="F291" s="2">
+      <c r="F291" t="s">
+        <v>33</v>
+      </c>
+      <c r="G291" s="2">
         <v>6.03</v>
       </c>
-      <c r="G291" s="8">
+      <c r="H291" s="8">
         <v>30.9</v>
       </c>
-      <c r="H291" s="1">
+      <c r="I291" s="1">
         <v>3.2206320000000002</v>
       </c>
-      <c r="I291" s="2">
+      <c r="J291" s="2">
         <v>8.3030000000000008</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -8944,20 +9271,23 @@
       <c r="E292">
         <v>24</v>
       </c>
-      <c r="F292" s="2">
+      <c r="F292" t="s">
+        <v>33</v>
+      </c>
+      <c r="G292" s="2">
         <v>12.03</v>
       </c>
-      <c r="G292" s="1">
+      <c r="H292" s="1">
         <v>31.3</v>
       </c>
-      <c r="H292" s="1">
+      <c r="I292" s="1">
         <v>8.23977</v>
       </c>
-      <c r="I292" s="2">
+      <c r="J292" s="2">
         <v>8.3279999999999994</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -8973,20 +9303,23 @@
       <c r="E293">
         <v>24</v>
       </c>
-      <c r="F293" s="2">
-        <v>18</v>
-      </c>
-      <c r="G293" s="1">
+      <c r="F293" t="s">
+        <v>33</v>
+      </c>
+      <c r="G293" s="2">
+        <v>18</v>
+      </c>
+      <c r="H293" s="1">
         <v>31.3</v>
       </c>
-      <c r="H293" s="1">
+      <c r="I293" s="1">
         <v>3.6243180000000002</v>
       </c>
-      <c r="I293" s="2">
+      <c r="J293" s="2">
         <v>8.2729999999999997</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -9002,20 +9335,23 @@
       <c r="E294">
         <v>24</v>
       </c>
-      <c r="F294" s="2">
+      <c r="F294" t="s">
+        <v>33</v>
+      </c>
+      <c r="G294" s="2">
         <v>5.7</v>
       </c>
-      <c r="G294" s="6">
+      <c r="H294" s="6">
         <v>31</v>
       </c>
-      <c r="H294" s="1">
+      <c r="I294" s="1">
         <v>2.3021910000000001</v>
       </c>
-      <c r="I294" s="2">
+      <c r="J294" s="2">
         <v>8.3439999999999994</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -9031,20 +9367,23 @@
       <c r="E295">
         <v>24</v>
       </c>
-      <c r="F295" s="2">
+      <c r="F295" t="s">
+        <v>33</v>
+      </c>
+      <c r="G295" s="2">
         <v>6.17</v>
       </c>
-      <c r="G295" s="6">
+      <c r="H295" s="6">
         <v>31.3</v>
       </c>
-      <c r="H295" s="1">
+      <c r="I295" s="1">
         <v>3.7490399999999999</v>
       </c>
-      <c r="I295" s="2">
+      <c r="J295" s="2">
         <v>8.3539999999999992</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -9060,20 +9399,23 @@
       <c r="E296">
         <v>24</v>
       </c>
-      <c r="F296" s="2">
+      <c r="F296" t="s">
+        <v>33</v>
+      </c>
+      <c r="G296" s="2">
         <v>17.97</v>
       </c>
-      <c r="G296" s="1">
+      <c r="H296" s="1">
         <v>31.3</v>
       </c>
-      <c r="H296" s="1">
+      <c r="I296" s="1">
         <v>36.50517</v>
       </c>
-      <c r="I296" s="2">
+      <c r="J296" s="2">
         <v>8.6010000000000009</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -9089,20 +9431,23 @@
       <c r="E297">
         <v>24</v>
       </c>
-      <c r="F297" s="2">
+      <c r="F297" t="s">
+        <v>33</v>
+      </c>
+      <c r="G297" s="2">
         <v>11.97</v>
       </c>
-      <c r="G297" s="1">
+      <c r="H297" s="1">
         <v>31.3</v>
       </c>
-      <c r="H297" s="1">
+      <c r="I297" s="1">
         <v>4.7453399999999997</v>
       </c>
-      <c r="I297" s="2">
+      <c r="J297" s="2">
         <v>8.2940000000000005</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -9118,20 +9463,23 @@
       <c r="E298">
         <v>24</v>
       </c>
-      <c r="F298" s="2">
-        <v>12</v>
-      </c>
-      <c r="G298" s="1">
+      <c r="F298" t="s">
+        <v>33</v>
+      </c>
+      <c r="G298" s="2">
+        <v>12</v>
+      </c>
+      <c r="H298" s="1">
         <v>31.2</v>
       </c>
-      <c r="H298" s="1">
+      <c r="I298" s="1">
         <v>12.317220000000001</v>
       </c>
-      <c r="I298" s="2">
+      <c r="J298" s="2">
         <v>8.5150000000000006</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -9147,20 +9495,23 @@
       <c r="E299">
         <v>24</v>
       </c>
-      <c r="F299" s="2">
+      <c r="F299" t="s">
+        <v>33</v>
+      </c>
+      <c r="G299" s="2">
         <v>5.8</v>
       </c>
-      <c r="G299" s="6">
+      <c r="H299" s="6">
         <v>31</v>
       </c>
-      <c r="H299" s="1">
+      <c r="I299" s="1">
         <v>4.8449700000000009</v>
       </c>
-      <c r="I299" s="2">
+      <c r="J299" s="2">
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -9176,20 +9527,23 @@
       <c r="E300">
         <v>24</v>
       </c>
-      <c r="F300" s="2">
-        <v>12</v>
-      </c>
-      <c r="G300" s="1">
+      <c r="F300" t="s">
+        <v>33</v>
+      </c>
+      <c r="G300" s="2">
+        <v>12</v>
+      </c>
+      <c r="H300" s="1">
         <v>31.2</v>
       </c>
-      <c r="H300" s="1">
+      <c r="I300" s="1">
         <v>3.56454</v>
       </c>
-      <c r="I300" s="2">
+      <c r="J300" s="2">
         <v>8.5069999999999997</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -9205,20 +9559,23 @@
       <c r="E301">
         <v>24</v>
       </c>
-      <c r="F301" s="2">
-        <v>18</v>
-      </c>
-      <c r="G301" s="1">
+      <c r="F301" t="s">
+        <v>33</v>
+      </c>
+      <c r="G301" s="2">
+        <v>18</v>
+      </c>
+      <c r="H301" s="1">
         <v>31.3</v>
       </c>
-      <c r="H301" s="1">
+      <c r="I301" s="1">
         <v>2.8722960000000004</v>
       </c>
-      <c r="I301" s="2">
+      <c r="J301" s="2">
         <v>8.3130000000000006</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -9234,20 +9591,20 @@
       <c r="E302">
         <v>25</v>
       </c>
-      <c r="F302" s="2">
+      <c r="G302" s="2">
         <v>17.97</v>
       </c>
-      <c r="G302" s="1">
+      <c r="H302" s="1">
         <v>31.2</v>
       </c>
-      <c r="H302" s="1">
+      <c r="I302" s="1">
         <v>9.7674300000000009</v>
       </c>
-      <c r="I302" s="2">
+      <c r="J302" s="2">
         <v>8.1449999999999996</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -9263,20 +9620,20 @@
       <c r="E303">
         <v>25</v>
       </c>
-      <c r="F303" s="2">
+      <c r="G303" s="2">
         <v>5.97</v>
       </c>
-      <c r="G303" s="8">
+      <c r="H303" s="8">
         <v>30.9</v>
       </c>
-      <c r="H303" s="1">
+      <c r="I303" s="1">
         <v>7.7785200000000012</v>
       </c>
-      <c r="I303" s="2">
+      <c r="J303" s="2">
         <v>8.3170000000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -9292,20 +9649,20 @@
       <c r="E304">
         <v>25</v>
       </c>
-      <c r="F304" s="2">
+      <c r="G304" s="2">
         <v>12.3</v>
       </c>
-      <c r="G304" s="1">
+      <c r="H304" s="1">
         <v>31.2</v>
       </c>
-      <c r="H304" s="1">
+      <c r="I304" s="1">
         <v>6.29514</v>
       </c>
-      <c r="I304" s="2">
+      <c r="J304" s="2">
         <v>8.3320000000000007</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -9321,20 +9678,20 @@
       <c r="E305">
         <v>25</v>
       </c>
-      <c r="F305" s="2">
+      <c r="G305" s="2">
         <v>18.03</v>
       </c>
-      <c r="G305" s="1">
+      <c r="H305" s="1">
         <v>31.4</v>
       </c>
-      <c r="H305" s="1">
+      <c r="I305" s="1">
         <v>4.2471899999999998</v>
       </c>
-      <c r="I305" s="2">
+      <c r="J305" s="2">
         <v>8.2859999999999996</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -9350,20 +9707,20 @@
       <c r="E306">
         <v>25</v>
       </c>
-      <c r="F306" s="2">
+      <c r="G306" s="2">
         <v>5.63</v>
       </c>
-      <c r="G306" s="6">
+      <c r="H306" s="6">
         <v>31</v>
       </c>
-      <c r="H306" s="1">
+      <c r="I306" s="1">
         <v>5.9150700000000009</v>
       </c>
-      <c r="I306" s="2">
+      <c r="J306" s="2">
         <v>8.3620000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -9379,20 +9736,20 @@
       <c r="E307">
         <v>25</v>
       </c>
-      <c r="F307" s="2">
+      <c r="G307" s="2">
         <v>5.93</v>
       </c>
-      <c r="G307" s="6">
+      <c r="H307" s="6">
         <v>31.2</v>
       </c>
-      <c r="H307" s="1">
+      <c r="I307" s="1">
         <v>5.5128600000000008</v>
       </c>
-      <c r="I307" s="2">
+      <c r="J307" s="2">
         <v>8.3770000000000007</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -9408,20 +9765,20 @@
       <c r="E308">
         <v>25</v>
       </c>
-      <c r="F308" s="2">
+      <c r="G308" s="2">
         <v>17.97</v>
       </c>
-      <c r="G308" s="1">
+      <c r="H308" s="1">
         <v>31.4</v>
       </c>
-      <c r="H308" s="1">
+      <c r="I308" s="1">
         <v>46.291050000000006</v>
       </c>
-      <c r="I308" s="2">
+      <c r="J308" s="2">
         <v>8.6280000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -9437,20 +9794,20 @@
       <c r="E309">
         <v>25</v>
       </c>
-      <c r="F309" s="2">
+      <c r="G309" s="2">
         <v>12.03</v>
       </c>
-      <c r="G309" s="1">
+      <c r="H309" s="1">
         <v>31.2</v>
       </c>
-      <c r="H309" s="1">
+      <c r="I309" s="1">
         <v>5.1660000000000004</v>
       </c>
-      <c r="I309" s="2">
+      <c r="J309" s="2">
         <v>8.234</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -9466,20 +9823,20 @@
       <c r="E310">
         <v>25</v>
       </c>
-      <c r="F310" s="2">
+      <c r="G310" s="2">
         <v>11.97</v>
       </c>
-      <c r="G310" s="1">
+      <c r="H310" s="1">
         <v>31.4</v>
       </c>
-      <c r="H310" s="1">
+      <c r="I310" s="1">
         <v>6.1549200000000006</v>
       </c>
-      <c r="I310" s="2">
+      <c r="J310" s="2">
         <v>8.5310000000000006</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -9495,20 +9852,20 @@
       <c r="E311">
         <v>25</v>
       </c>
-      <c r="F311" s="2">
+      <c r="G311" s="2">
         <v>5.8</v>
       </c>
-      <c r="G311" s="6">
+      <c r="H311" s="6">
         <v>31</v>
       </c>
-      <c r="H311" s="1">
+      <c r="I311" s="1">
         <v>4.1180399999999997</v>
       </c>
-      <c r="I311" s="2">
+      <c r="J311" s="2">
         <v>8.3309999999999995</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -9524,20 +9881,20 @@
       <c r="E312">
         <v>25</v>
       </c>
-      <c r="F312" s="2">
+      <c r="G312" s="2">
         <v>12.1</v>
       </c>
-      <c r="G312" s="1">
+      <c r="H312" s="1">
         <v>31.2</v>
       </c>
-      <c r="H312" s="1">
+      <c r="I312" s="1">
         <v>32.24691</v>
       </c>
-      <c r="I312" s="2">
+      <c r="J312" s="2">
         <v>8.5289999999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -9553,20 +9910,20 @@
       <c r="E313">
         <v>25</v>
       </c>
-      <c r="F313" s="2">
-        <v>18</v>
-      </c>
-      <c r="G313" s="1">
+      <c r="G313" s="2">
+        <v>18</v>
+      </c>
+      <c r="H313" s="1">
         <v>31.3</v>
       </c>
-      <c r="H313" s="1">
+      <c r="I313" s="1">
         <v>4.2656400000000003</v>
       </c>
-      <c r="I313" s="2">
+      <c r="J313" s="2">
         <v>8.3350000000000009</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -9582,20 +9939,20 @@
       <c r="E314">
         <v>26</v>
       </c>
-      <c r="F314" s="2">
+      <c r="G314" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="G314" s="1">
+      <c r="H314" s="1">
         <v>31.3</v>
       </c>
-      <c r="H314" s="1">
+      <c r="I314" s="1">
         <v>18.328230000000001</v>
       </c>
-      <c r="I314" s="2">
+      <c r="J314" s="2">
         <v>8.44</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -9611,20 +9968,20 @@
       <c r="E315">
         <v>26</v>
       </c>
-      <c r="F315" s="2">
+      <c r="G315" s="2">
         <v>6.07</v>
       </c>
-      <c r="G315" s="8">
+      <c r="H315" s="8">
         <v>31.1</v>
       </c>
-      <c r="H315" s="1">
+      <c r="I315" s="1">
         <v>5.0479200000000004</v>
       </c>
-      <c r="I315" s="2">
+      <c r="J315" s="2">
         <v>8.3450000000000006</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -9640,20 +9997,20 @@
       <c r="E316">
         <v>26</v>
       </c>
-      <c r="F316" s="2">
+      <c r="G316" s="2">
         <v>11.97</v>
       </c>
-      <c r="G316" s="1">
+      <c r="H316" s="1">
         <v>31.3</v>
       </c>
-      <c r="H316" s="1">
+      <c r="I316" s="1">
         <v>4.0553100000000004</v>
       </c>
-      <c r="I316" s="2">
+      <c r="J316" s="2">
         <v>8.3439999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -9669,20 +10026,20 @@
       <c r="E317">
         <v>26</v>
       </c>
-      <c r="F317" s="2">
+      <c r="G317" s="2">
         <v>17.829999999999998</v>
       </c>
-      <c r="G317" s="1">
+      <c r="H317" s="1">
         <v>31.4</v>
       </c>
-      <c r="H317" s="1">
+      <c r="I317" s="1">
         <v>6.51654</v>
       </c>
-      <c r="I317" s="2">
+      <c r="J317" s="2">
         <v>8.2910000000000004</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -9698,20 +10055,20 @@
       <c r="E318">
         <v>26</v>
       </c>
-      <c r="F318" s="2">
+      <c r="G318" s="2">
         <v>5.87</v>
       </c>
-      <c r="G318" s="6">
+      <c r="H318" s="6">
         <v>31.1</v>
       </c>
-      <c r="H318" s="1">
+      <c r="I318" s="1">
         <v>6.0774299999999997</v>
       </c>
-      <c r="I318" s="2">
+      <c r="J318" s="2">
         <v>8.3840000000000003</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -9727,20 +10084,20 @@
       <c r="E319">
         <v>26</v>
       </c>
-      <c r="F319" s="2">
+      <c r="G319" s="2">
         <v>6.2</v>
       </c>
-      <c r="G319" s="6">
+      <c r="H319" s="6">
         <v>31.1</v>
       </c>
-      <c r="H319" s="1">
+      <c r="I319" s="1">
         <v>4.2102899999999996</v>
       </c>
-      <c r="I319" s="2">
+      <c r="J319" s="2">
         <v>8.3989999999999991</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -9756,20 +10113,20 @@
       <c r="E320">
         <v>26</v>
       </c>
-      <c r="F320" s="2">
-        <v>18</v>
-      </c>
-      <c r="G320" s="1">
+      <c r="G320" s="2">
+        <v>18</v>
+      </c>
+      <c r="H320" s="1">
         <v>31.3</v>
       </c>
-      <c r="H320" s="1">
+      <c r="I320" s="1">
         <v>10.9962</v>
       </c>
-      <c r="I320" s="2">
+      <c r="J320" s="2">
         <v>8.6389999999999993</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -9785,20 +10142,20 @@
       <c r="E321">
         <v>26</v>
       </c>
-      <c r="F321" s="2">
+      <c r="G321" s="2">
         <v>11.9</v>
       </c>
-      <c r="G321" s="1">
+      <c r="H321" s="1">
         <v>31.2</v>
       </c>
-      <c r="H321" s="1">
+      <c r="I321" s="1">
         <v>5.3172899999999998</v>
       </c>
-      <c r="I321" s="2">
+      <c r="J321" s="2">
         <v>8.3170000000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -9814,20 +10171,20 @@
       <c r="E322">
         <v>26</v>
       </c>
-      <c r="F322" s="2">
+      <c r="G322" s="2">
         <v>11.9</v>
       </c>
-      <c r="G322" s="1">
+      <c r="H322" s="1">
         <v>31.3</v>
       </c>
-      <c r="H322" s="1">
+      <c r="I322" s="1">
         <v>4.6272600000000006</v>
       </c>
-      <c r="I322" s="2">
+      <c r="J322" s="2">
         <v>8.548</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -9843,20 +10200,20 @@
       <c r="E323">
         <v>26</v>
       </c>
-      <c r="F323" s="2">
+      <c r="G323" s="2">
         <v>6.17</v>
       </c>
-      <c r="G323" s="6">
+      <c r="H323" s="6">
         <v>31.1</v>
       </c>
-      <c r="H323" s="1">
+      <c r="I323" s="1">
         <v>3.9925800000000002</v>
       </c>
-      <c r="I323" s="2">
+      <c r="J323" s="2">
         <v>8.4019999999999992</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -9872,20 +10229,20 @@
       <c r="E324">
         <v>26</v>
       </c>
-      <c r="F324" s="2">
+      <c r="G324" s="2">
         <v>12.07</v>
       </c>
-      <c r="G324" s="1">
+      <c r="H324" s="1">
         <v>31.2</v>
       </c>
-      <c r="H324" s="1">
+      <c r="I324" s="1">
         <v>5.0589899999999997</v>
       </c>
-      <c r="I324" s="2">
+      <c r="J324" s="2">
         <v>8.5329999999999995</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -9901,20 +10258,20 @@
       <c r="E325">
         <v>26</v>
       </c>
-      <c r="F325" s="2">
-        <v>18</v>
-      </c>
-      <c r="G325" s="1">
+      <c r="G325" s="2">
+        <v>18</v>
+      </c>
+      <c r="H325" s="1">
         <v>31.3</v>
       </c>
-      <c r="H325" s="1">
+      <c r="I325" s="1">
         <v>5.5276200000000006</v>
       </c>
-      <c r="I325" s="2">
+      <c r="J325" s="2">
         <v>8.3239999999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -9930,20 +10287,23 @@
       <c r="E326">
         <v>27</v>
       </c>
-      <c r="F326" s="2">
-        <v>18</v>
-      </c>
-      <c r="G326" s="1">
+      <c r="F326" t="s">
+        <v>34</v>
+      </c>
+      <c r="G326" s="2">
+        <v>18</v>
+      </c>
+      <c r="H326" s="1">
         <v>31.4</v>
       </c>
-      <c r="H326" s="1">
+      <c r="I326" s="1">
         <v>16.605</v>
       </c>
-      <c r="I326" s="2">
+      <c r="J326" s="2">
         <v>8.4629999999999992</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -9959,20 +10319,23 @@
       <c r="E327">
         <v>27</v>
       </c>
-      <c r="F327" s="2">
+      <c r="F327" t="s">
+        <v>34</v>
+      </c>
+      <c r="G327" s="2">
         <v>5.83</v>
       </c>
-      <c r="G327" s="8">
+      <c r="H327" s="8">
         <v>31</v>
       </c>
-      <c r="H327" s="1">
+      <c r="I327" s="1">
         <v>4.3726500000000001</v>
       </c>
-      <c r="I327" s="2">
+      <c r="J327" s="2">
         <v>8.3559999999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -9988,20 +10351,23 @@
       <c r="E328">
         <v>27</v>
       </c>
-      <c r="F328" s="2">
+      <c r="F328" t="s">
+        <v>34</v>
+      </c>
+      <c r="G328" s="2">
         <v>11.97</v>
       </c>
-      <c r="G328" s="1">
+      <c r="H328" s="1">
         <v>31.3</v>
       </c>
-      <c r="H328" s="1">
+      <c r="I328" s="1">
         <v>9.4832999999999998</v>
       </c>
-      <c r="I328" s="2">
+      <c r="J328" s="2">
         <v>8.3320000000000007</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -10017,20 +10383,23 @@
       <c r="E329">
         <v>27</v>
       </c>
-      <c r="F329" s="2">
-        <v>18</v>
-      </c>
-      <c r="G329" s="1">
+      <c r="F329" t="s">
+        <v>34</v>
+      </c>
+      <c r="G329" s="2">
+        <v>18</v>
+      </c>
+      <c r="H329" s="1">
         <v>31.4</v>
       </c>
-      <c r="H329" s="1">
+      <c r="I329" s="1">
         <v>3.8228400000000002</v>
       </c>
-      <c r="I329" s="2">
+      <c r="J329" s="2">
         <v>8.2970000000000006</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -10046,20 +10415,23 @@
       <c r="E330">
         <v>27</v>
       </c>
-      <c r="F330" s="2">
+      <c r="F330" t="s">
+        <v>34</v>
+      </c>
+      <c r="G330" s="2">
         <v>5.63</v>
       </c>
-      <c r="G330" s="6">
+      <c r="H330" s="6">
         <v>30.9</v>
       </c>
-      <c r="H330" s="1">
+      <c r="I330" s="1">
         <v>5.3320500000000006</v>
       </c>
-      <c r="I330" s="2">
+      <c r="J330" s="2">
         <v>8.4179999999999993</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -10075,20 +10447,23 @@
       <c r="E331">
         <v>27</v>
       </c>
-      <c r="F331" s="2">
+      <c r="F331" t="s">
+        <v>34</v>
+      </c>
+      <c r="G331" s="2">
         <v>5.93</v>
       </c>
-      <c r="G331" s="6">
+      <c r="H331" s="6">
         <v>30.9</v>
       </c>
-      <c r="H331" s="1">
+      <c r="I331" s="1">
         <v>4.0036500000000004</v>
       </c>
-      <c r="I331" s="2">
+      <c r="J331" s="2">
         <v>8.4329999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -10104,20 +10479,23 @@
       <c r="E332">
         <v>27</v>
       </c>
-      <c r="F332" s="2">
+      <c r="F332" t="s">
+        <v>34</v>
+      </c>
+      <c r="G332" s="2">
         <v>18.170000000000002</v>
       </c>
-      <c r="G332" s="1">
+      <c r="H332" s="1">
         <v>31.4</v>
       </c>
-      <c r="H332" s="1">
+      <c r="I332" s="1">
         <v>41.586300000000001</v>
       </c>
-      <c r="I332" s="2">
+      <c r="J332" s="2">
         <v>8.6010000000000009</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -10133,20 +10511,23 @@
       <c r="E333">
         <v>27</v>
       </c>
-      <c r="F333" s="2">
+      <c r="F333" t="s">
+        <v>34</v>
+      </c>
+      <c r="G333" s="2">
         <v>12.1</v>
       </c>
-      <c r="G333" s="1">
+      <c r="H333" s="1">
         <v>31.2</v>
       </c>
-      <c r="H333" s="1">
+      <c r="I333" s="1">
         <v>4.2656400000000003</v>
       </c>
-      <c r="I333" s="2">
+      <c r="J333" s="2">
         <v>8.3230000000000004</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -10162,20 +10543,23 @@
       <c r="E334">
         <v>27</v>
       </c>
-      <c r="F334" s="2">
+      <c r="F334" t="s">
+        <v>34</v>
+      </c>
+      <c r="G334" s="2">
         <v>11.9</v>
       </c>
-      <c r="G334" s="1">
+      <c r="H334" s="1">
         <v>31.3</v>
       </c>
-      <c r="H334" s="1">
+      <c r="I334" s="1">
         <v>42.066000000000003</v>
       </c>
-      <c r="I334" s="2">
+      <c r="J334" s="2">
         <v>8.5359999999999996</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -10191,20 +10575,23 @@
       <c r="E335">
         <v>27</v>
       </c>
-      <c r="F335" s="2">
+      <c r="F335" t="s">
+        <v>34</v>
+      </c>
+      <c r="G335" s="2">
         <v>5.8</v>
       </c>
-      <c r="G335" s="6">
+      <c r="H335" s="6">
         <v>31</v>
       </c>
-      <c r="H335" s="1">
+      <c r="I335" s="1">
         <v>3.3948</v>
       </c>
-      <c r="I335" s="2">
+      <c r="J335" s="2">
         <v>8.41</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -10220,20 +10607,23 @@
       <c r="E336">
         <v>27</v>
       </c>
-      <c r="F336" s="2">
-        <v>12</v>
-      </c>
-      <c r="G336" s="1">
+      <c r="F336" t="s">
+        <v>34</v>
+      </c>
+      <c r="G336" s="2">
+        <v>12</v>
+      </c>
+      <c r="H336" s="1">
         <v>31.3</v>
       </c>
-      <c r="H336" s="1">
+      <c r="I336" s="1">
         <v>16.092090000000002</v>
       </c>
-      <c r="I336" s="2">
+      <c r="J336" s="2">
         <v>8.5510000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
@@ -10249,21 +10639,24 @@
       <c r="E337">
         <v>27</v>
       </c>
-      <c r="F337" s="2">
+      <c r="F337" t="s">
+        <v>34</v>
+      </c>
+      <c r="G337" s="2">
         <v>18.07</v>
       </c>
-      <c r="G337" s="1">
+      <c r="H337" s="1">
         <v>31.5</v>
       </c>
-      <c r="H337" s="1">
+      <c r="I337" s="1">
         <v>3.5726580000000001</v>
       </c>
-      <c r="I337" s="2">
+      <c r="J337" s="2">
         <v>8.3460000000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I337">
+  <sortState ref="A2:J337">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
